--- a/bsc_scan_binance/src/main/resources/MQL5/LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/LotSize.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680"/>
+    <workbookView xWindow="6072" yWindow="0" windowWidth="32100" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId3"/>
+    <sheet name="Thay đổi hệ số quãng" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -392,12 +393,30 @@
   <si>
     <t>L</t>
   </si>
+  <si>
+    <t>Điền hệ số nhân</t>
+  </si>
+  <si>
+    <t>Điền quãng giá</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Điền TP</t>
+  </si>
+  <si>
+    <t>Hệ số</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -405,8 +424,9 @@
     <numFmt numFmtId="167" formatCode="0.00;\-0.00;;\ @"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,8 +629,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +755,32 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1200,6 +1257,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1210,7 +1372,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1446,6 +1608,12 @@
     <xf numFmtId="3" fontId="11" fillId="15" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,10 +1632,163 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="15" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1800,7 +2121,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +2165,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +2209,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +2253,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2297,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2341,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2385,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2429,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2473,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2517,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2561,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2605,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2328,7 +2649,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2693,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2737,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC58" sqref="AC58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2848,12 +3169,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:28" ht="25.2">
       <c r="A2" s="48" t="s">
@@ -2866,19 +3187,19 @@
       </c>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96" t="s">
+      <c r="M2" s="98"/>
+      <c r="N2" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
       <c r="Q2" s="42"/>
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
@@ -2901,22 +3222,22 @@
       <c r="G3" s="29"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="93">
+      <c r="J3" s="95">
         <f>SUM('Bảng Input L30'!B13:B37)</f>
-        <v>440.96149164770793</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94">
+        <v>44.096149164770779</v>
+      </c>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96">
         <f>J3*91</f>
-        <v>40127.49573994142</v>
-      </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95">
+        <v>4012.749573994141</v>
+      </c>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97">
         <f>L3+'Bảng Input L30'!C35</f>
-        <v>75561.273381341744</v>
-      </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+        <v>7556.1273381341707</v>
+      </c>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
@@ -3116,7 +3437,7 @@
       <c r="B8" s="49"/>
       <c r="C8" s="50"/>
       <c r="D8" s="46">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3360,15 +3681,15 @@
       </c>
       <c r="H11" s="37">
         <f>'Bảng Input L30'!B13</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="33">
         <f>H11*H6*100</f>
-        <v>60.000000000000007</v>
+        <v>6</v>
       </c>
       <c r="J11" s="33">
         <f>H11*100*(H6-H5)</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="K11" s="33">
         <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
@@ -3376,71 +3697,71 @@
       </c>
       <c r="L11" s="33">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="M11" s="33">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-60</v>
+        <v>-6</v>
       </c>
       <c r="N11" s="33">
         <f t="shared" si="7"/>
-        <v>-90</v>
+        <v>-9</v>
       </c>
       <c r="O11" s="33">
         <f t="shared" si="7"/>
-        <v>-120</v>
+        <v>-12</v>
       </c>
       <c r="P11" s="33">
         <f t="shared" si="7"/>
-        <v>-150</v>
+        <v>-15</v>
       </c>
       <c r="Q11" s="33">
         <f t="shared" si="7"/>
-        <v>-180</v>
+        <v>-18</v>
       </c>
       <c r="R11" s="33">
         <f t="shared" si="7"/>
-        <v>-210</v>
+        <v>-21</v>
       </c>
       <c r="S11" s="33">
         <f t="shared" si="7"/>
-        <v>-240</v>
+        <v>-24</v>
       </c>
       <c r="T11" s="33">
         <f t="shared" si="7"/>
-        <v>-270</v>
+        <v>-27</v>
       </c>
       <c r="U11" s="33">
         <f t="shared" si="7"/>
-        <v>-300</v>
+        <v>-30</v>
       </c>
       <c r="V11" s="33">
         <f t="shared" si="7"/>
-        <v>-330</v>
+        <v>-33</v>
       </c>
       <c r="W11" s="33">
         <f t="shared" si="7"/>
-        <v>-360</v>
+        <v>-36</v>
       </c>
       <c r="X11" s="33">
         <f t="shared" si="7"/>
-        <v>-390</v>
+        <v>-39</v>
       </c>
       <c r="Y11" s="33">
         <f t="shared" si="7"/>
-        <v>-420</v>
+        <v>-42</v>
       </c>
       <c r="Z11" s="33">
         <f t="shared" si="7"/>
-        <v>-450</v>
+        <v>-45</v>
       </c>
       <c r="AA11" s="33">
         <f t="shared" si="7"/>
-        <v>-480</v>
+        <v>-48</v>
       </c>
       <c r="AB11" s="33">
         <f t="shared" si="7"/>
-        <v>-510</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1">
@@ -3461,16 +3782,16 @@
       </c>
       <c r="H12" s="32">
         <f t="shared" ref="H12:H30" si="8">H11*$H$4</f>
-        <v>0.16180000000000003</v>
+        <v>1.618E-2</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="33">
         <f>H12*100*H6</f>
-        <v>97.080000000000013</v>
+        <v>9.7079999999999984</v>
       </c>
       <c r="K12" s="33">
         <f>H12*100*(H6-H5)</f>
-        <v>48.540000000000006</v>
+        <v>4.8539999999999992</v>
       </c>
       <c r="L12" s="33">
         <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
@@ -3478,67 +3799,67 @@
       </c>
       <c r="M12" s="33">
         <f t="shared" si="9"/>
-        <v>-48.540000000000006</v>
+        <v>-4.8539999999999992</v>
       </c>
       <c r="N12" s="33">
         <f t="shared" si="9"/>
-        <v>-97.080000000000013</v>
+        <v>-9.7079999999999984</v>
       </c>
       <c r="O12" s="33">
         <f t="shared" si="9"/>
-        <v>-145.62000000000003</v>
+        <v>-14.561999999999999</v>
       </c>
       <c r="P12" s="33">
         <f t="shared" si="9"/>
-        <v>-194.16000000000003</v>
+        <v>-19.415999999999997</v>
       </c>
       <c r="Q12" s="33">
         <f t="shared" si="9"/>
-        <v>-242.70000000000005</v>
+        <v>-24.27</v>
       </c>
       <c r="R12" s="33">
         <f t="shared" si="9"/>
-        <v>-291.24000000000007</v>
+        <v>-29.123999999999999</v>
       </c>
       <c r="S12" s="33">
         <f t="shared" si="9"/>
-        <v>-339.78000000000009</v>
+        <v>-33.977999999999994</v>
       </c>
       <c r="T12" s="33">
         <f t="shared" si="9"/>
-        <v>-388.32000000000005</v>
+        <v>-38.831999999999994</v>
       </c>
       <c r="U12" s="33">
         <f t="shared" si="9"/>
-        <v>-436.86000000000007</v>
+        <v>-43.686</v>
       </c>
       <c r="V12" s="33">
         <f t="shared" si="9"/>
-        <v>-485.40000000000009</v>
+        <v>-48.54</v>
       </c>
       <c r="W12" s="33">
         <f t="shared" si="9"/>
-        <v>-533.94000000000005</v>
+        <v>-53.393999999999998</v>
       </c>
       <c r="X12" s="33">
         <f t="shared" si="9"/>
-        <v>-582.48000000000013</v>
+        <v>-58.247999999999998</v>
       </c>
       <c r="Y12" s="33">
         <f t="shared" si="9"/>
-        <v>-631.0200000000001</v>
+        <v>-63.101999999999997</v>
       </c>
       <c r="Z12" s="33">
         <f t="shared" si="9"/>
-        <v>-679.56000000000017</v>
+        <v>-67.955999999999989</v>
       </c>
       <c r="AA12" s="33">
         <f t="shared" si="9"/>
-        <v>-728.10000000000014</v>
+        <v>-72.809999999999988</v>
       </c>
       <c r="AB12" s="33">
         <f t="shared" si="9"/>
-        <v>-776.6400000000001</v>
+        <v>-77.663999999999987</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1">
@@ -3548,11 +3869,11 @@
       </c>
       <c r="B13" s="8">
         <f>+D8</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>140</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
@@ -3563,17 +3884,17 @@
       </c>
       <c r="H13" s="32">
         <f t="shared" si="8"/>
-        <v>0.26179240000000004</v>
+        <v>2.6179240000000003E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="33">
         <f>H13*100*H6</f>
-        <v>157.07544000000001</v>
+        <v>15.707544000000002</v>
       </c>
       <c r="L13" s="33">
         <f>H13*100*(H6-H5)</f>
-        <v>78.537720000000007</v>
+        <v>7.8537720000000011</v>
       </c>
       <c r="M13" s="33">
         <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
@@ -3581,63 +3902,63 @@
       </c>
       <c r="N13" s="33">
         <f t="shared" si="10"/>
-        <v>-78.537720000000007</v>
+        <v>-7.8537720000000011</v>
       </c>
       <c r="O13" s="33">
         <f t="shared" si="10"/>
-        <v>-157.07544000000001</v>
+        <v>-15.707544000000002</v>
       </c>
       <c r="P13" s="33">
         <f t="shared" si="10"/>
-        <v>-235.61316000000002</v>
+        <v>-23.561316000000005</v>
       </c>
       <c r="Q13" s="33">
         <f t="shared" si="10"/>
-        <v>-314.15088000000003</v>
+        <v>-31.415088000000004</v>
       </c>
       <c r="R13" s="33">
         <f t="shared" si="10"/>
-        <v>-392.68860000000006</v>
+        <v>-39.268860000000004</v>
       </c>
       <c r="S13" s="33">
         <f t="shared" si="10"/>
-        <v>-471.22632000000004</v>
+        <v>-47.12263200000001</v>
       </c>
       <c r="T13" s="33">
         <f t="shared" si="10"/>
-        <v>-549.76404000000002</v>
+        <v>-54.976404000000009</v>
       </c>
       <c r="U13" s="33">
         <f t="shared" si="10"/>
-        <v>-628.30176000000006</v>
+        <v>-62.830176000000009</v>
       </c>
       <c r="V13" s="33">
         <f t="shared" si="10"/>
-        <v>-706.83948000000009</v>
+        <v>-70.683948000000015</v>
       </c>
       <c r="W13" s="33">
         <f t="shared" si="10"/>
-        <v>-785.37720000000013</v>
+        <v>-78.537720000000007</v>
       </c>
       <c r="X13" s="33">
         <f t="shared" si="10"/>
-        <v>-863.91492000000017</v>
+        <v>-86.391492000000014</v>
       </c>
       <c r="Y13" s="33">
         <f t="shared" si="10"/>
-        <v>-942.45264000000009</v>
+        <v>-94.24526400000002</v>
       </c>
       <c r="Z13" s="33">
         <f t="shared" si="10"/>
-        <v>-1020.9903600000001</v>
+        <v>-102.09903600000001</v>
       </c>
       <c r="AA13" s="33">
         <f t="shared" si="10"/>
-        <v>-1099.52808</v>
+        <v>-109.95280800000002</v>
       </c>
       <c r="AB13" s="33">
         <f t="shared" si="10"/>
-        <v>-1178.0658000000001</v>
+        <v>-117.80658000000001</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.8">
@@ -3647,11 +3968,11 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" ref="B14:B34" si="12">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
-        <v>0.16180000000000003</v>
+        <v>1.618E-2</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
-        <v>210.34</v>
+        <v>21.033999999999999</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
@@ -3662,18 +3983,18 @@
       </c>
       <c r="H14" s="32">
         <f t="shared" si="8"/>
-        <v>0.42358010320000011</v>
+        <v>4.2358010320000007E-2</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="33">
         <f>H14*100*H6</f>
-        <v>254.14806192000009</v>
+        <v>25.414806192</v>
       </c>
       <c r="M14" s="33">
         <f>H14*100*(H6-H5)</f>
-        <v>127.07403096000004</v>
+        <v>12.707403096</v>
       </c>
       <c r="N14" s="33">
         <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
@@ -3681,59 +4002,59 @@
       </c>
       <c r="O14" s="33">
         <f t="shared" si="14"/>
-        <v>-127.07403096000004</v>
+        <v>-12.707403096</v>
       </c>
       <c r="P14" s="33">
         <f t="shared" si="14"/>
-        <v>-254.14806192000009</v>
+        <v>-25.414806192</v>
       </c>
       <c r="Q14" s="33">
         <f t="shared" si="14"/>
-        <v>-381.2220928800001</v>
+        <v>-38.122209288000001</v>
       </c>
       <c r="R14" s="33">
         <f t="shared" si="14"/>
-        <v>-508.29612384000018</v>
+        <v>-50.829612384000001</v>
       </c>
       <c r="S14" s="33">
         <f t="shared" si="14"/>
-        <v>-635.37015480000014</v>
+        <v>-63.537015480000008</v>
       </c>
       <c r="T14" s="33">
         <f t="shared" si="14"/>
-        <v>-762.44418576000021</v>
+        <v>-76.244418576000001</v>
       </c>
       <c r="U14" s="33">
         <f t="shared" si="14"/>
-        <v>-889.51821672000028</v>
+        <v>-88.951821672000008</v>
       </c>
       <c r="V14" s="33">
         <f t="shared" si="14"/>
-        <v>-1016.5922476800004</v>
+        <v>-101.659224768</v>
       </c>
       <c r="W14" s="33">
         <f t="shared" si="14"/>
-        <v>-1143.6662786400004</v>
+        <v>-114.36662786400001</v>
       </c>
       <c r="X14" s="33">
         <f t="shared" si="14"/>
-        <v>-1270.7403096000003</v>
+        <v>-127.07403096000002</v>
       </c>
       <c r="Y14" s="33">
         <f t="shared" si="14"/>
-        <v>-1397.8143405600003</v>
+        <v>-139.78143405600002</v>
       </c>
       <c r="Z14" s="33">
         <f t="shared" si="14"/>
-        <v>-1524.8883715200004</v>
+        <v>-152.488837152</v>
       </c>
       <c r="AA14" s="33">
         <f t="shared" si="14"/>
-        <v>-1651.9624024800005</v>
+        <v>-165.19624024800001</v>
       </c>
       <c r="AB14" s="33">
         <f t="shared" si="14"/>
-        <v>-1779.0364334400006</v>
+        <v>-177.90364334400002</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.8">
@@ -3743,11 +4064,11 @@
       </c>
       <c r="B15" s="10">
         <f t="shared" si="12"/>
-        <v>0.26179240000000004</v>
+        <v>2.6179240000000003E-2</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="13"/>
-        <v>314.15088000000003</v>
+        <v>31.415088000000001</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
@@ -3758,7 +4079,7 @@
       </c>
       <c r="H15" s="32">
         <f t="shared" si="8"/>
-        <v>0.68535260697760025</v>
+        <v>6.8535260697760017E-2</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
@@ -3766,11 +4087,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="33">
         <f>H15*H6*100</f>
-        <v>411.21156418656017</v>
+        <v>41.121156418656014</v>
       </c>
       <c r="N15" s="33">
         <f>H15*100*(H6-H5)</f>
-        <v>205.60578209328008</v>
+        <v>20.560578209328003</v>
       </c>
       <c r="O15" s="33">
         <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
@@ -3778,55 +4099,55 @@
       </c>
       <c r="P15" s="33">
         <f t="shared" si="15"/>
-        <v>-205.60578209328008</v>
+        <v>-20.560578209328003</v>
       </c>
       <c r="Q15" s="33">
         <f t="shared" si="15"/>
-        <v>-411.21156418656017</v>
+        <v>-41.121156418656007</v>
       </c>
       <c r="R15" s="33">
         <f t="shared" si="15"/>
-        <v>-616.81734627984019</v>
+        <v>-61.681734627984014</v>
       </c>
       <c r="S15" s="33">
         <f t="shared" si="15"/>
-        <v>-822.42312837312033</v>
+        <v>-82.242312837312014</v>
       </c>
       <c r="T15" s="33">
         <f t="shared" si="15"/>
-        <v>-1028.0289104664002</v>
+        <v>-102.80289104664003</v>
       </c>
       <c r="U15" s="33">
         <f t="shared" si="15"/>
-        <v>-1233.6346925596804</v>
+        <v>-123.36346925596803</v>
       </c>
       <c r="V15" s="33">
         <f t="shared" si="15"/>
-        <v>-1439.2404746529605</v>
+        <v>-143.92404746529604</v>
       </c>
       <c r="W15" s="33">
         <f t="shared" si="15"/>
-        <v>-1644.8462567462407</v>
+        <v>-164.48462567462403</v>
       </c>
       <c r="X15" s="33">
         <f t="shared" si="15"/>
-        <v>-1850.4520388395206</v>
+        <v>-185.04520388395204</v>
       </c>
       <c r="Y15" s="33">
         <f t="shared" si="15"/>
-        <v>-2056.0578209328005</v>
+        <v>-205.60578209328006</v>
       </c>
       <c r="Z15" s="33">
         <f t="shared" si="15"/>
-        <v>-2261.6636030260806</v>
+        <v>-226.16636030260804</v>
       </c>
       <c r="AA15" s="33">
         <f t="shared" si="15"/>
-        <v>-2467.2693851193608</v>
+        <v>-246.72693851193605</v>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="15"/>
-        <v>-2672.8751672126409</v>
+        <v>-267.28751672126407</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.8">
@@ -3836,11 +4157,11 @@
       </c>
       <c r="B16" s="10">
         <f t="shared" si="12"/>
-        <v>0.42358010320000011</v>
+        <v>4.2358010320000007E-2</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="13"/>
-        <v>465.93811352000012</v>
+        <v>46.59381135200001</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
@@ -3851,7 +4172,7 @@
       </c>
       <c r="H16" s="32">
         <f t="shared" si="8"/>
-        <v>1.1089005180897573</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3860,11 +4181,11 @@
       <c r="M16" s="3"/>
       <c r="N16" s="33">
         <f>H16*H6*100</f>
-        <v>665.34031085385448</v>
+        <v>66.534031085385422</v>
       </c>
       <c r="O16" s="33">
         <f>H16*100*(H6-H5)</f>
-        <v>332.67015542692718</v>
+        <v>33.267015542692711</v>
       </c>
       <c r="P16" s="33">
         <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
@@ -3872,51 +4193,51 @@
       </c>
       <c r="Q16" s="33">
         <f t="shared" si="16"/>
-        <v>-332.67015542692718</v>
+        <v>-33.267015542692711</v>
       </c>
       <c r="R16" s="33">
         <f t="shared" si="16"/>
-        <v>-665.34031085385436</v>
+        <v>-66.534031085385422</v>
       </c>
       <c r="S16" s="33">
         <f t="shared" si="16"/>
-        <v>-998.01046628078154</v>
+        <v>-99.80104662807814</v>
       </c>
       <c r="T16" s="33">
         <f t="shared" si="16"/>
-        <v>-1330.6806217077087</v>
+        <v>-133.06806217077084</v>
       </c>
       <c r="U16" s="33">
         <f t="shared" si="16"/>
-        <v>-1663.3507771346358</v>
+        <v>-166.33507771346356</v>
       </c>
       <c r="V16" s="33">
         <f t="shared" si="16"/>
-        <v>-1996.0209325615631</v>
+        <v>-199.60209325615628</v>
       </c>
       <c r="W16" s="33">
         <f t="shared" si="16"/>
-        <v>-2328.6910879884904</v>
+        <v>-232.869108798849</v>
       </c>
       <c r="X16" s="33">
         <f t="shared" si="16"/>
-        <v>-2661.3612434154174</v>
+        <v>-266.13612434154169</v>
       </c>
       <c r="Y16" s="33">
         <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
-        <v>-2994.0313988423445</v>
+        <v>-299.40313988423441</v>
       </c>
       <c r="Z16" s="33">
         <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
-        <v>-3326.7015542692716</v>
+        <v>-332.67015542692712</v>
       </c>
       <c r="AA16" s="33">
         <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
-        <v>-3659.3717096961991</v>
+        <v>-365.93717096961984</v>
       </c>
       <c r="AB16" s="33">
         <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
-        <v>-3992.0418651231262</v>
+        <v>-399.20418651231256</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16.8">
@@ -3926,11 +4247,11 @@
       </c>
       <c r="B17" s="10">
         <f t="shared" si="12"/>
-        <v>0.68535260697760025</v>
+        <v>6.8535260697760017E-2</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="13"/>
-        <v>685.3526069776002</v>
+        <v>68.535260697760009</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
@@ -3941,7 +4262,7 @@
       </c>
       <c r="H17" s="32">
         <f t="shared" si="8"/>
-        <v>1.7942010382692275</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3951,11 +4272,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="33">
         <f>H6*H17*100</f>
-        <v>1076.5206229615367</v>
+        <v>107.65206229615363</v>
       </c>
       <c r="P17" s="33">
         <f>H17*100*(H6-H5)</f>
-        <v>538.26031148076822</v>
+        <v>53.826031148076808</v>
       </c>
       <c r="Q17" s="33">
         <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
@@ -3963,47 +4284,47 @@
       </c>
       <c r="R17" s="33">
         <f t="shared" si="21"/>
-        <v>-538.26031148076822</v>
+        <v>-53.826031148076808</v>
       </c>
       <c r="S17" s="33">
         <f t="shared" si="21"/>
-        <v>-1076.5206229615364</v>
+        <v>-107.65206229615362</v>
       </c>
       <c r="T17" s="33">
         <f t="shared" si="21"/>
-        <v>-1614.7809344423047</v>
+        <v>-161.47809344423044</v>
       </c>
       <c r="U17" s="33">
         <f t="shared" si="21"/>
-        <v>-2153.0412459230729</v>
+        <v>-215.30412459230723</v>
       </c>
       <c r="V17" s="33">
         <f t="shared" si="21"/>
-        <v>-2691.3015574038409</v>
+        <v>-269.13015574038405</v>
       </c>
       <c r="W17" s="33">
         <f t="shared" si="21"/>
-        <v>-3229.5618688846093</v>
+        <v>-322.95618688846088</v>
       </c>
       <c r="X17" s="33">
         <f t="shared" si="21"/>
-        <v>-3767.8221803653778</v>
+        <v>-376.7822180365377</v>
       </c>
       <c r="Y17" s="33">
         <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
-        <v>-4306.0824918461458</v>
+        <v>-430.60824918461446</v>
       </c>
       <c r="Z17" s="33">
         <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
-        <v>-4844.3428033269138</v>
+        <v>-484.43428033269129</v>
       </c>
       <c r="AA17" s="33">
         <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
-        <v>-5382.6031148076818</v>
+        <v>-538.26031148076811</v>
       </c>
       <c r="AB17" s="33">
         <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
-        <v>-5920.8634262884507</v>
+        <v>-592.08634262884493</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16.8">
@@ -4013,11 +4334,11 @@
       </c>
       <c r="B18" s="10">
         <f t="shared" si="12"/>
-        <v>1.1089005180897573</v>
+        <v>0.11089005180897571</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="13"/>
-        <v>998.01046628078166</v>
+        <v>99.80104662807814</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
@@ -4028,7 +4349,7 @@
       </c>
       <c r="H18" s="32">
         <f t="shared" si="8"/>
-        <v>2.9030172799196103</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -4039,11 +4360,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="33">
         <f>H6*H18*100</f>
-        <v>1741.8103679517665</v>
+        <v>174.18103679517657</v>
       </c>
       <c r="Q18" s="33">
         <f>H18*100*(H6-H5)</f>
-        <v>870.90518397588312</v>
+        <v>87.090518397588298</v>
       </c>
       <c r="R18" s="33">
         <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
@@ -4051,43 +4372,43 @@
       </c>
       <c r="S18" s="33">
         <f t="shared" si="26"/>
-        <v>-870.90518397588312</v>
+        <v>-87.090518397588298</v>
       </c>
       <c r="T18" s="33">
         <f t="shared" si="26"/>
-        <v>-1741.8103679517662</v>
+        <v>-174.1810367951766</v>
       </c>
       <c r="U18" s="33">
         <f t="shared" si="26"/>
-        <v>-2612.7155519276494</v>
+        <v>-261.27155519276488</v>
       </c>
       <c r="V18" s="33">
         <f t="shared" si="26"/>
-        <v>-3483.6207359035325</v>
+        <v>-348.36207359035319</v>
       </c>
       <c r="W18" s="33">
         <f t="shared" si="26"/>
-        <v>-4354.5259198794156</v>
+        <v>-435.45259198794145</v>
       </c>
       <c r="X18" s="33">
         <f t="shared" si="26"/>
-        <v>-5225.4311038552987</v>
+        <v>-522.54311038552976</v>
       </c>
       <c r="Y18" s="33">
         <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
-        <v>-6096.3362878311818</v>
+        <v>-609.63362878311807</v>
       </c>
       <c r="Z18" s="33">
         <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
-        <v>-6967.241471807065</v>
+        <v>-696.72414718070638</v>
       </c>
       <c r="AA18" s="33">
         <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
-        <v>-7838.146655782949</v>
+        <v>-783.81466557829469</v>
       </c>
       <c r="AB18" s="33">
         <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
-        <v>-8709.0518397588312</v>
+        <v>-870.90518397588289</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.8">
@@ -4097,11 +4418,11 @@
       </c>
       <c r="B19" s="10">
         <f t="shared" si="12"/>
-        <v>1.7942010382692275</v>
+        <v>0.17942010382692272</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="13"/>
-        <v>1435.3608306153819</v>
+        <v>143.53608306153816</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
@@ -4112,7 +4433,7 @@
       </c>
       <c r="H19" s="32">
         <f t="shared" si="8"/>
-        <v>4.69708195890993</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4124,11 +4445,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="33">
         <f>H6*H19*100</f>
-        <v>2818.2491753459581</v>
+        <v>281.82491753459573</v>
       </c>
       <c r="R19" s="33">
         <f>H19*100*(H6-H5)</f>
-        <v>1409.124587672979</v>
+        <v>140.91245876729786</v>
       </c>
       <c r="S19" s="33">
         <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
@@ -4136,39 +4457,39 @@
       </c>
       <c r="T19" s="33">
         <f t="shared" si="31"/>
-        <v>-1409.124587672979</v>
+        <v>-140.91245876729786</v>
       </c>
       <c r="U19" s="33">
         <f t="shared" si="31"/>
-        <v>-2818.2491753459581</v>
+        <v>-281.82491753459573</v>
       </c>
       <c r="V19" s="33">
         <f t="shared" si="31"/>
-        <v>-4227.3737630189371</v>
+        <v>-422.73737630189356</v>
       </c>
       <c r="W19" s="33">
         <f t="shared" si="31"/>
-        <v>-5636.4983506919161</v>
+        <v>-563.64983506919145</v>
       </c>
       <c r="X19" s="33">
         <f t="shared" si="31"/>
-        <v>-7045.6229383648952</v>
+        <v>-704.56229383648929</v>
       </c>
       <c r="Y19" s="33">
         <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
-        <v>-8454.7475260378742</v>
+        <v>-845.47475260378712</v>
       </c>
       <c r="Z19" s="33">
         <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
-        <v>-9863.8721137108532</v>
+        <v>-986.38721137108496</v>
       </c>
       <c r="AA19" s="33">
         <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
-        <v>-11272.996701383832</v>
+        <v>-1127.2996701383829</v>
       </c>
       <c r="AB19" s="33">
         <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
-        <v>-12682.121289056811</v>
+        <v>-1268.2121289056806</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="16.8">
@@ -4178,11 +4499,11 @@
       </c>
       <c r="B20" s="10">
         <f t="shared" si="12"/>
-        <v>2.9030172799196103</v>
+        <v>0.29030172799196097</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="13"/>
-        <v>2032.1120959437274</v>
+        <v>203.21120959437269</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
@@ -4193,7 +4514,7 @@
       </c>
       <c r="H20" s="32">
         <f t="shared" si="8"/>
-        <v>7.5998786095162671</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4206,11 +4527,11 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="33">
         <f>H6*H20*100</f>
-        <v>4559.9271657097606</v>
+        <v>455.99271657097586</v>
       </c>
       <c r="S20" s="33">
         <f>H20*100*(H6-H5)</f>
-        <v>2279.9635828548803</v>
+        <v>227.99635828548799</v>
       </c>
       <c r="T20" s="33">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
@@ -4218,35 +4539,35 @@
       </c>
       <c r="U20" s="33">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>-2279.9635828548803</v>
+        <v>-227.99635828548799</v>
       </c>
       <c r="V20" s="33">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-4559.9271657097606</v>
+        <v>-455.99271657097597</v>
       </c>
       <c r="W20" s="33">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-6839.8907485646414</v>
+        <v>-683.98907485646396</v>
       </c>
       <c r="X20" s="33">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-9119.8543314195213</v>
+        <v>-911.98543314195194</v>
       </c>
       <c r="Y20" s="33">
         <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
-        <v>-11399.817914274401</v>
+        <v>-1139.9817914274399</v>
       </c>
       <c r="Z20" s="33">
         <f t="shared" si="36"/>
-        <v>-13679.781497129283</v>
+        <v>-1367.9781497129279</v>
       </c>
       <c r="AA20" s="33">
         <f t="shared" si="36"/>
-        <v>-15959.745079984163</v>
+        <v>-1595.9745079984159</v>
       </c>
       <c r="AB20" s="33">
         <f t="shared" si="36"/>
-        <v>-18239.708662839043</v>
+        <v>-1823.9708662839039</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16.8">
@@ -4256,11 +4577,11 @@
       </c>
       <c r="B21" s="10">
         <f t="shared" si="12"/>
-        <v>4.69708195890993</v>
+        <v>0.46970819589099289</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="13"/>
-        <v>2818.2491753459581</v>
+        <v>281.82491753459573</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
@@ -4271,7 +4592,7 @@
       </c>
       <c r="H21" s="32">
         <f t="shared" si="8"/>
-        <v>12.296603590197321</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -4285,11 +4606,11 @@
       <c r="R21" s="3"/>
       <c r="S21" s="34">
         <f>H6*H21*100</f>
-        <v>7377.9621541183933</v>
+        <v>737.79621541183906</v>
       </c>
       <c r="T21" s="34">
         <f>H21*100*(H6-H5)</f>
-        <v>3688.9810770591967</v>
+        <v>368.89810770591953</v>
       </c>
       <c r="U21" s="34">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
@@ -4297,31 +4618,31 @@
       </c>
       <c r="V21" s="34">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>-3688.9810770591967</v>
+        <v>-368.89810770591953</v>
       </c>
       <c r="W21" s="34">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-7377.9621541183933</v>
+        <v>-737.79621541183906</v>
       </c>
       <c r="X21" s="34">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-11066.943231177589</v>
+        <v>-1106.6943231177586</v>
       </c>
       <c r="Y21" s="34">
         <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
-        <v>-14755.924308236787</v>
+        <v>-1475.5924308236781</v>
       </c>
       <c r="Z21" s="34">
         <f t="shared" si="37"/>
-        <v>-18444.905385295981</v>
+        <v>-1844.4905385295976</v>
       </c>
       <c r="AA21" s="34">
         <f t="shared" si="37"/>
-        <v>-22133.886462355178</v>
+        <v>-2213.3886462355172</v>
       </c>
       <c r="AB21" s="34">
         <f t="shared" si="37"/>
-        <v>-25822.867539414376</v>
+        <v>-2582.2867539414365</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16.8">
@@ -4331,11 +4652,11 @@
       </c>
       <c r="B22" s="10">
         <f t="shared" si="12"/>
-        <v>7.5998786095162671</v>
+        <v>0.75998786095162651</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="13"/>
-        <v>3799.9393047581334</v>
+        <v>379.99393047581327</v>
       </c>
       <c r="D22" s="9">
         <f>IF(A22=0,0,($D$7*($D$10-10)))</f>
@@ -4346,7 +4667,7 @@
       </c>
       <c r="H22" s="32">
         <f t="shared" si="8"/>
-        <v>19.895904608939269</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -4361,11 +4682,11 @@
       <c r="S22" s="34"/>
       <c r="T22" s="34">
         <f>H6*H22*100</f>
-        <v>11937.542765363562</v>
+        <v>1193.7542765363555</v>
       </c>
       <c r="U22" s="34">
         <f>H22*100*(H6-H5)</f>
-        <v>5968.7713826817799</v>
+        <v>596.87713826817787</v>
       </c>
       <c r="V22" s="34">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
@@ -4373,27 +4694,27 @@
       </c>
       <c r="W22" s="34">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>-5968.7713826817799</v>
+        <v>-596.87713826817787</v>
       </c>
       <c r="X22" s="34">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-11937.54276536356</v>
+        <v>-1193.7542765363557</v>
       </c>
       <c r="Y22" s="34">
         <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
-        <v>-17906.314148045341</v>
+        <v>-1790.6314148045335</v>
       </c>
       <c r="Z22" s="34">
         <f t="shared" si="38"/>
-        <v>-23875.085530727119</v>
+        <v>-2387.5085530727115</v>
       </c>
       <c r="AA22" s="34">
         <f t="shared" si="38"/>
-        <v>-29843.856913408901</v>
+        <v>-2984.385691340889</v>
       </c>
       <c r="AB22" s="34">
         <f t="shared" si="38"/>
-        <v>-35812.628296090683</v>
+        <v>-3581.262829609067</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16.8">
@@ -4403,11 +4724,11 @@
       </c>
       <c r="B23" s="10">
         <f t="shared" si="12"/>
-        <v>12.296603590197321</v>
+        <v>1.2296603590197317</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="13"/>
-        <v>4918.6414360789286</v>
+        <v>491.86414360789269</v>
       </c>
       <c r="D23" s="9">
         <f>IF(A23=0,0,($D$7*($D$10-11)))</f>
@@ -4418,7 +4739,7 @@
       </c>
       <c r="H23" s="32">
         <f t="shared" si="8"/>
-        <v>32.191573657263739</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -4434,11 +4755,11 @@
       <c r="T23" s="34"/>
       <c r="U23" s="34">
         <f>H6*H23*100</f>
-        <v>19314.944194358242</v>
+        <v>1931.4944194358236</v>
       </c>
       <c r="V23" s="34">
         <f>H23*100*(H6-H5)</f>
-        <v>9657.4720971791212</v>
+        <v>965.7472097179118</v>
       </c>
       <c r="W23" s="34">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
@@ -4446,23 +4767,23 @@
       </c>
       <c r="X23" s="34">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>-9657.4720971791212</v>
+        <v>-965.7472097179118</v>
       </c>
       <c r="Y23" s="34">
         <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
-        <v>-19314.944194358242</v>
+        <v>-1931.4944194358236</v>
       </c>
       <c r="Z23" s="34">
         <f t="shared" si="39"/>
-        <v>-28972.416291537364</v>
+        <v>-2897.2416291537356</v>
       </c>
       <c r="AA23" s="34">
         <f t="shared" si="39"/>
-        <v>-38629.888388716485</v>
+        <v>-3862.9888388716472</v>
       </c>
       <c r="AB23" s="34">
         <f t="shared" si="39"/>
-        <v>-48287.36048589561</v>
+        <v>-4828.7360485895597</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.8">
@@ -4472,11 +4793,11 @@
       </c>
       <c r="B24" s="10">
         <f t="shared" si="12"/>
-        <v>19.895904608939269</v>
+        <v>1.9895904608939261</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="13"/>
-        <v>5968.7713826817808</v>
+        <v>596.87713826817776</v>
       </c>
       <c r="D24" s="9">
         <f>IF(A24=0,0,($D$7*($D$10-12)))</f>
@@ -4487,7 +4808,7 @@
       </c>
       <c r="H24" s="32">
         <f t="shared" si="8"/>
-        <v>52.085966177452732</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4504,11 +4825,11 @@
       <c r="U24" s="34"/>
       <c r="V24" s="34">
         <f>H6*H24*100</f>
-        <v>31251.579706471635</v>
+        <v>3125.157970647163</v>
       </c>
       <c r="W24" s="34">
         <f>H24*100*(H6-H5)</f>
-        <v>15625.789853235819</v>
+        <v>1562.5789853235817</v>
       </c>
       <c r="X24" s="34">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
@@ -4516,19 +4837,19 @@
       </c>
       <c r="Y24" s="34">
         <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
-        <v>-15625.789853235819</v>
+        <v>-1562.5789853235817</v>
       </c>
       <c r="Z24" s="34">
         <f t="shared" si="40"/>
-        <v>-31251.579706471639</v>
+        <v>-3125.1579706471634</v>
       </c>
       <c r="AA24" s="34">
         <f t="shared" si="40"/>
-        <v>-46877.369559707455</v>
+        <v>-4687.7369559707449</v>
       </c>
       <c r="AB24" s="34">
         <f t="shared" si="40"/>
-        <v>-62503.159412943278</v>
+        <v>-6250.3159412943269</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="16.8">
@@ -4538,11 +4859,11 @@
       </c>
       <c r="B25" s="10">
         <f t="shared" si="12"/>
-        <v>32.191573657263739</v>
+        <v>3.2191573657263728</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="13"/>
-        <v>6438.3147314527478</v>
+        <v>643.83147314527457</v>
       </c>
       <c r="D25" s="9">
         <f>IF(A25=0,0,($D$7*($D$10-13)))</f>
@@ -4553,7 +4874,7 @@
       </c>
       <c r="H25" s="32">
         <f t="shared" si="8"/>
-        <v>84.275093275118522</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4571,11 +4892,11 @@
       <c r="V25" s="34"/>
       <c r="W25" s="34">
         <f>H6*H25*100</f>
-        <v>50565.055965071107</v>
+        <v>5056.5055965071115</v>
       </c>
       <c r="X25" s="34">
         <f>H25*100*(H6-H5)</f>
-        <v>25282.527982535557</v>
+        <v>2528.2527982535553</v>
       </c>
       <c r="Y25" s="34">
         <f>$H$25*100*($H$6-$H$5*J10)</f>
@@ -4583,15 +4904,15 @@
       </c>
       <c r="Z25" s="34">
         <f>$H$25*100*($H$6-$H$5*K10)</f>
-        <v>-25282.527982535557</v>
+        <v>-2528.2527982535553</v>
       </c>
       <c r="AA25" s="34">
         <f>$H$25*100*($H$6-$H$5*L10)</f>
-        <v>-50565.055965071115</v>
+        <v>-5056.5055965071106</v>
       </c>
       <c r="AB25" s="34">
         <f>$H$25*100*($H$6-$H$5*M10)</f>
-        <v>-75847.583947606676</v>
+        <v>-7584.7583947606663</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.8">
@@ -4601,11 +4922,11 @@
       </c>
       <c r="B26" s="10">
         <f t="shared" si="12"/>
-        <v>52.085966177452732</v>
+        <v>5.2085966177452718</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="13"/>
-        <v>5208.5966177452729</v>
+        <v>520.85966177452724</v>
       </c>
       <c r="D26" s="9">
         <f>IF(A26=0,0,($D$7*($D$10-14)))</f>
@@ -4616,7 +4937,7 @@
       </c>
       <c r="H26" s="32">
         <f t="shared" si="8"/>
-        <v>136.35710091914177</v>
+        <v>13.635710091914175</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4635,11 +4956,11 @@
       <c r="W26" s="34"/>
       <c r="X26" s="34">
         <f>H26*H6*100</f>
-        <v>81814.260551485058</v>
+        <v>8181.4260551485049</v>
       </c>
       <c r="Y26" s="34">
         <f>$H$26*100*($H$6-$H$5)</f>
-        <v>40907.130275742529</v>
+        <v>4090.7130275742525</v>
       </c>
       <c r="Z26" s="34">
         <f>$H$26*100*($H$6-$H$5*J10)</f>
@@ -4647,11 +4968,11 @@
       </c>
       <c r="AA26" s="34">
         <f>$H$26*100*($H$6-$H$5*K10)</f>
-        <v>-40907.130275742529</v>
+        <v>-4090.7130275742525</v>
       </c>
       <c r="AB26" s="34">
         <f>$H$26*100*($H$6-$H$5*L10)</f>
-        <v>-81814.260551485058</v>
+        <v>-8181.4260551485049</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16.8">
@@ -4661,7 +4982,7 @@
       </c>
       <c r="B27" s="10">
         <f t="shared" si="12"/>
-        <v>84.275093275118522</v>
+        <v>8.4275093275118511</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="13"/>
@@ -4676,15 +4997,15 @@
       </c>
       <c r="H27" s="32">
         <f t="shared" si="8"/>
-        <v>220.62578928717141</v>
+        <v>22.062578928717137</v>
       </c>
       <c r="Y27" s="34">
         <f>$H$27*$H$6*100</f>
-        <v>132375.47357230284</v>
+        <v>13237.547357230284</v>
       </c>
       <c r="Z27" s="34">
         <f>$H$27*100*($H$6-$H$5*I$10)</f>
-        <v>66187.736786151421</v>
+        <v>6618.7736786151418</v>
       </c>
       <c r="AA27" s="34">
         <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
@@ -4692,7 +5013,7 @@
       </c>
       <c r="AB27" s="34">
         <f t="shared" si="41"/>
-        <v>-66187.736786151421</v>
+        <v>-6618.7736786151418</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="16.8">
@@ -4717,15 +5038,15 @@
       </c>
       <c r="H28" s="32">
         <f t="shared" si="8"/>
-        <v>356.97252706664335</v>
+        <v>35.697252706664329</v>
       </c>
       <c r="Z28" s="34">
         <f>$H$28*$H$6*100</f>
-        <v>214183.516239986</v>
+        <v>21418.351623998598</v>
       </c>
       <c r="AA28" s="34">
         <f>$H$28*100*($H$6-$H$5*I$10)</f>
-        <v>107091.75811999301</v>
+        <v>10709.175811999299</v>
       </c>
       <c r="AB28" s="34">
         <f>$H$28*100*($H$6-$H$5*J$10)</f>
@@ -4754,15 +5075,15 @@
       </c>
       <c r="H29" s="32">
         <f t="shared" si="8"/>
-        <v>577.58154879382903</v>
+        <v>57.758154879382886</v>
       </c>
       <c r="AA29" s="34">
         <f>$H$29*$H$6*100</f>
-        <v>346548.92927629745</v>
+        <v>34654.892927629735</v>
       </c>
       <c r="AB29" s="34">
         <f>$H$29*100*($H$6-$H$5*I$10)</f>
-        <v>173274.46463814873</v>
+        <v>17327.446463814864</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.8">
@@ -4787,11 +5108,11 @@
       </c>
       <c r="H30" s="32">
         <f t="shared" si="8"/>
-        <v>934.52694594841546</v>
+        <v>93.452694594841518</v>
       </c>
       <c r="AB30" s="34">
         <f>$H$30*$H$6*100</f>
-        <v>560716.16756904928</v>
+        <v>56071.616756904907</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="16.8">
@@ -4816,7 +5137,7 @@
       </c>
       <c r="H31" s="44">
         <f>SUM(H11:H26)</f>
-        <v>356.83784674299574</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="I31" s="39">
         <f>SUMIF(I11:I30, "&lt;0")</f>
@@ -4832,71 +5153,71 @@
       </c>
       <c r="L31" s="39">
         <f t="shared" si="42"/>
-        <v>-30</v>
+        <v>-3</v>
       </c>
       <c r="M31" s="39">
         <f t="shared" si="42"/>
-        <v>-108.54</v>
+        <v>-10.853999999999999</v>
       </c>
       <c r="N31" s="39">
         <f t="shared" si="42"/>
-        <v>-265.61772000000002</v>
+        <v>-26.561771999999998</v>
       </c>
       <c r="O31" s="39">
         <f t="shared" si="42"/>
-        <v>-549.76947096000004</v>
+        <v>-54.976947095999996</v>
       </c>
       <c r="P31" s="39">
         <f t="shared" si="42"/>
-        <v>-1039.5270040132802</v>
+        <v>-103.952700401328</v>
       </c>
       <c r="Q31" s="39">
         <f t="shared" si="42"/>
-        <v>-1861.9546924934875</v>
+        <v>-186.19546924934872</v>
       </c>
       <c r="R31" s="39">
         <f t="shared" si="42"/>
-        <v>-3222.642692454463</v>
+        <v>-322.26426924544626</v>
       </c>
       <c r="S31" s="39">
         <f t="shared" si="42"/>
-        <v>-5454.2358763913217</v>
+        <v>-545.42358763913205</v>
       </c>
       <c r="T31" s="39">
         <f t="shared" si="42"/>
-        <v>-9094.9536480011593</v>
+        <v>-909.49536480011579</v>
       </c>
       <c r="U31" s="39">
         <f t="shared" si="42"/>
-        <v>-15015.635002465877</v>
+        <v>-1501.5635002465874</v>
       </c>
       <c r="V31" s="39">
         <f t="shared" si="42"/>
-        <v>-24625.297433989792</v>
+        <v>-2462.529743398979</v>
       </c>
       <c r="W31" s="39">
         <f t="shared" si="42"/>
-        <v>-40203.731248195487</v>
+        <v>-4020.3731248195477</v>
       </c>
       <c r="X31" s="39">
         <f t="shared" si="42"/>
-        <v>-65439.637159580307</v>
+        <v>-6543.9637159580279</v>
       </c>
       <c r="Y31" s="39">
         <f t="shared" si="42"/>
-        <v>-106301.33292420095</v>
+        <v>-10630.133292420091</v>
       </c>
       <c r="Z31" s="39">
         <f t="shared" si="42"/>
-        <v>-172445.55667135713</v>
+        <v>-17244.555667135708</v>
       </c>
       <c r="AA31" s="39">
         <f t="shared" si="42"/>
-        <v>-279496.91069425584</v>
+        <v>-27949.691069425578</v>
       </c>
       <c r="AB31" s="39">
         <f t="shared" si="42"/>
-        <v>-452736.00150330603</v>
+        <v>-45273.600150330589</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="16.8">
@@ -4918,83 +5239,83 @@
       </c>
       <c r="I32" s="87">
         <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
-        <v>60.000000000000007</v>
+        <v>6</v>
       </c>
       <c r="J32" s="87">
         <f t="shared" si="44"/>
-        <v>127.08000000000001</v>
+        <v>12.707999999999998</v>
       </c>
       <c r="K32" s="87">
         <f t="shared" si="44"/>
-        <v>205.61544000000004</v>
+        <v>20.561544000000001</v>
       </c>
       <c r="L32" s="87">
         <f t="shared" si="44"/>
-        <v>302.68578192000007</v>
+        <v>30.268578192</v>
       </c>
       <c r="M32" s="87">
         <f t="shared" si="44"/>
-        <v>429.74559514656022</v>
+        <v>42.974559514656015</v>
       </c>
       <c r="N32" s="87">
         <f t="shared" si="44"/>
-        <v>605.32837294713454</v>
+        <v>60.532837294713431</v>
       </c>
       <c r="O32" s="87">
         <f t="shared" si="44"/>
-        <v>859.42130742846382</v>
+        <v>85.942130742846345</v>
       </c>
       <c r="P32" s="87">
         <f t="shared" si="44"/>
-        <v>1240.5436754192544</v>
+        <v>124.05436754192537</v>
       </c>
       <c r="Q32" s="87">
         <f t="shared" si="44"/>
-        <v>1827.1996668283537</v>
+        <v>182.71996668283532</v>
       </c>
       <c r="R32" s="87">
         <f t="shared" si="44"/>
-        <v>2746.4090609282766</v>
+        <v>274.64090609282744</v>
       </c>
       <c r="S32" s="87">
         <f t="shared" si="44"/>
-        <v>4203.6898605819515</v>
+        <v>420.36898605819499</v>
       </c>
       <c r="T32" s="87">
         <f t="shared" si="44"/>
-        <v>6531.5701944215989</v>
+        <v>653.15701944215925</v>
       </c>
       <c r="U32" s="87">
         <f t="shared" si="44"/>
-        <v>10268.080574574145</v>
+        <v>1026.8080574574142</v>
       </c>
       <c r="V32" s="87">
         <f t="shared" si="44"/>
-        <v>16283.754369660965</v>
+        <v>1628.3754369660958</v>
       </c>
       <c r="W32" s="87">
         <f t="shared" si="44"/>
-        <v>25987.11457011144</v>
+        <v>2598.7114570111453</v>
       </c>
       <c r="X32" s="87">
         <f t="shared" si="44"/>
-        <v>41657.151374440306</v>
+        <v>4165.7151374440327</v>
       </c>
       <c r="Y32" s="87">
         <f t="shared" si="44"/>
-        <v>66981.270923844422</v>
+        <v>6698.1270923844459</v>
       </c>
       <c r="Z32" s="87">
         <f t="shared" si="44"/>
-        <v>107925.69635478029</v>
+        <v>10792.569635478032</v>
       </c>
       <c r="AA32" s="87">
         <f t="shared" si="44"/>
-        <v>174143.77670203464</v>
+        <v>17414.377670203456</v>
       </c>
       <c r="AB32" s="87">
         <f t="shared" si="44"/>
-        <v>281254.63070389198</v>
+        <v>28125.463070389182</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="16.8">
@@ -5017,83 +5338,83 @@
       <c r="G33" s="1"/>
       <c r="I33" s="41">
         <f>SUM($H11:$H11)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J33" s="41">
         <f>SUM($H11:$H12)</f>
-        <v>0.26180000000000003</v>
+        <v>2.6180000000000002E-2</v>
       </c>
       <c r="K33" s="41">
         <f>SUM($H11:$H13)</f>
-        <v>0.52359240000000007</v>
+        <v>5.2359240000000001E-2</v>
       </c>
       <c r="L33" s="41">
         <f>SUM($H11:$H14)</f>
-        <v>0.94717250320000024</v>
+        <v>9.4717250320000002E-2</v>
       </c>
       <c r="M33" s="41">
         <f>SUM($H11:$H15)</f>
-        <v>1.6325251101776006</v>
+        <v>0.16325251101776</v>
       </c>
       <c r="N33" s="41">
         <f>SUM($H11:$H16)</f>
-        <v>2.7414256282673577</v>
+        <v>0.27414256282673571</v>
       </c>
       <c r="O33" s="41">
         <f>SUM($H11:$H17)</f>
-        <v>4.5356266665365848</v>
+        <v>0.45356266665365841</v>
       </c>
       <c r="P33" s="41">
         <f>SUM($H11:$H18)</f>
-        <v>7.4386439464561951</v>
+        <v>0.74386439464561938</v>
       </c>
       <c r="Q33" s="41">
         <f>SUM($H11:$H19)</f>
-        <v>12.135725905366126</v>
+        <v>1.2135725905366122</v>
       </c>
       <c r="R33" s="41">
         <f>SUM($H11:$H20)</f>
-        <v>19.735604514882393</v>
+        <v>1.9735604514882388</v>
       </c>
       <c r="S33" s="41">
         <f>SUM($H11:$H21)</f>
-        <v>32.032208105079718</v>
+        <v>3.2032208105079705</v>
       </c>
       <c r="T33" s="41">
         <f>SUM($H11:$H22)</f>
-        <v>51.928112714018987</v>
+        <v>5.1928112714018964</v>
       </c>
       <c r="U33" s="41">
         <f>SUM($H11:$H23)</f>
-        <v>84.119686371282725</v>
+        <v>8.4119686371282683</v>
       </c>
       <c r="V33" s="41">
         <f>SUM($H11:$H24)</f>
-        <v>136.20565254873546</v>
+        <v>13.62056525487354</v>
       </c>
       <c r="W33" s="41">
         <f>SUM($H11:$H25)</f>
-        <v>220.48074582385397</v>
+        <v>22.048074582385389</v>
       </c>
       <c r="X33" s="41">
         <f>SUM($H11:$H26)</f>
-        <v>356.83784674299574</v>
+        <v>35.683784674299567</v>
       </c>
       <c r="Y33" s="41">
         <f>SUM($H11:$H27)</f>
-        <v>577.46363603016721</v>
+        <v>57.746363603016704</v>
       </c>
       <c r="Z33" s="41">
         <f>SUM($H11:$H28)</f>
-        <v>934.43616309681056</v>
+        <v>93.443616309681033</v>
       </c>
       <c r="AA33" s="41">
         <f>SUM($H11:$H29)</f>
-        <v>1512.0177118906395</v>
+        <v>151.20177118906392</v>
       </c>
       <c r="AB33" s="41">
         <f>SUM($H11:$H30)</f>
-        <v>2446.5446578390547</v>
+        <v>244.65446578390544</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="17.399999999999999" thickBot="1">
@@ -5120,11 +5441,11 @@
       </c>
       <c r="B35" s="27">
         <f>SUM(B13:B34)</f>
-        <v>220.48074582385397</v>
+        <v>22.048074582385389</v>
       </c>
       <c r="C35" s="27">
         <f>SUM(C13:C34)</f>
-        <v>35433.777641400316</v>
+        <v>3543.3777641400302</v>
       </c>
       <c r="D35" s="28">
         <f>MAX(D13:D34)</f>
@@ -5351,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="AB40" s="63">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="18.600000000000001">
@@ -5370,64 +5691,64 @@
       <c r="H41" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="98">
+      <c r="I41" s="92">
         <v>1</v>
       </c>
-      <c r="J41" s="98">
+      <c r="J41" s="92">
         <v>2</v>
       </c>
-      <c r="K41" s="98">
+      <c r="K41" s="92">
         <v>3</v>
       </c>
-      <c r="L41" s="98">
+      <c r="L41" s="92">
         <v>4</v>
       </c>
-      <c r="M41" s="98">
+      <c r="M41" s="92">
         <v>5</v>
       </c>
-      <c r="N41" s="98">
+      <c r="N41" s="92">
         <v>6</v>
       </c>
-      <c r="O41" s="98">
+      <c r="O41" s="92">
         <v>7</v>
       </c>
-      <c r="P41" s="98">
+      <c r="P41" s="92">
         <v>8</v>
       </c>
-      <c r="Q41" s="98">
+      <c r="Q41" s="92">
         <v>9</v>
       </c>
-      <c r="R41" s="98">
+      <c r="R41" s="92">
         <v>10</v>
       </c>
-      <c r="S41" s="98">
+      <c r="S41" s="92">
         <v>11</v>
       </c>
-      <c r="T41" s="98">
+      <c r="T41" s="92">
         <v>12</v>
       </c>
-      <c r="U41" s="98">
+      <c r="U41" s="92">
         <v>13</v>
       </c>
-      <c r="V41" s="98">
+      <c r="V41" s="92">
         <v>14</v>
       </c>
-      <c r="W41" s="98">
+      <c r="W41" s="92">
         <v>15</v>
       </c>
-      <c r="X41" s="98">
+      <c r="X41" s="92">
         <v>16</v>
       </c>
-      <c r="Y41" s="98">
+      <c r="Y41" s="92">
         <v>17</v>
       </c>
-      <c r="Z41" s="98">
+      <c r="Z41" s="92">
         <v>18</v>
       </c>
-      <c r="AA41" s="98">
+      <c r="AA41" s="92">
         <v>19</v>
       </c>
-      <c r="AB41" s="98">
+      <c r="AB41" s="92">
         <v>20</v>
       </c>
     </row>
@@ -5489,43 +5810,43 @@
         <f t="shared" si="45"/>
         <v>-45</v>
       </c>
-      <c r="S42" s="97">
+      <c r="S42" s="91">
         <f t="shared" si="45"/>
         <v>-50</v>
       </c>
-      <c r="T42" s="97">
+      <c r="T42" s="91">
         <f t="shared" si="45"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="U42" s="97">
+      <c r="U42" s="91">
         <f t="shared" si="45"/>
         <v>-60</v>
       </c>
-      <c r="V42" s="97">
+      <c r="V42" s="91">
         <f t="shared" si="45"/>
         <v>-65</v>
       </c>
-      <c r="W42" s="97">
+      <c r="W42" s="91">
         <f t="shared" si="45"/>
         <v>-70</v>
       </c>
-      <c r="X42" s="97">
+      <c r="X42" s="91">
         <f t="shared" si="45"/>
         <v>-75</v>
       </c>
-      <c r="Y42" s="97">
+      <c r="Y42" s="91">
         <f t="shared" si="45"/>
         <v>-80</v>
       </c>
-      <c r="Z42" s="97">
+      <c r="Z42" s="91">
         <f t="shared" si="45"/>
         <v>-85</v>
       </c>
-      <c r="AA42" s="97">
+      <c r="AA42" s="91">
         <f t="shared" si="45"/>
         <v>-90</v>
       </c>
-      <c r="AB42" s="97">
+      <c r="AB42" s="91">
         <f t="shared" si="45"/>
         <v>-95</v>
       </c>
@@ -5586,43 +5907,43 @@
         <f t="shared" si="49"/>
         <v>-40</v>
       </c>
-      <c r="S43" s="97">
+      <c r="S43" s="91">
         <f t="shared" si="49"/>
         <v>-45</v>
       </c>
-      <c r="T43" s="97">
+      <c r="T43" s="91">
         <f t="shared" si="49"/>
         <v>-50</v>
       </c>
-      <c r="U43" s="97">
+      <c r="U43" s="91">
         <f t="shared" si="49"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="V43" s="97">
+      <c r="V43" s="91">
         <f t="shared" si="49"/>
         <v>-60</v>
       </c>
-      <c r="W43" s="97">
+      <c r="W43" s="91">
         <f t="shared" si="49"/>
         <v>-65</v>
       </c>
-      <c r="X43" s="97">
+      <c r="X43" s="91">
         <f t="shared" si="49"/>
         <v>-70</v>
       </c>
-      <c r="Y43" s="97">
+      <c r="Y43" s="91">
         <f t="shared" si="49"/>
         <v>-75</v>
       </c>
-      <c r="Z43" s="97">
+      <c r="Z43" s="91">
         <f t="shared" si="49"/>
         <v>-80</v>
       </c>
-      <c r="AA43" s="97">
+      <c r="AA43" s="91">
         <f t="shared" si="49"/>
         <v>-85</v>
       </c>
-      <c r="AB43" s="97">
+      <c r="AB43" s="91">
         <f t="shared" si="49"/>
         <v>-90</v>
       </c>
@@ -5680,43 +6001,43 @@
         <f t="shared" si="50"/>
         <v>-35</v>
       </c>
-      <c r="S44" s="97">
+      <c r="S44" s="91">
         <f t="shared" si="50"/>
         <v>-40</v>
       </c>
-      <c r="T44" s="97">
+      <c r="T44" s="91">
         <f t="shared" si="50"/>
         <v>-45</v>
       </c>
-      <c r="U44" s="97">
+      <c r="U44" s="91">
         <f t="shared" si="50"/>
         <v>-50</v>
       </c>
-      <c r="V44" s="97">
+      <c r="V44" s="91">
         <f t="shared" si="50"/>
         <v>-55.000000000000007</v>
       </c>
-      <c r="W44" s="97">
+      <c r="W44" s="91">
         <f t="shared" si="50"/>
         <v>-60</v>
       </c>
-      <c r="X44" s="97">
+      <c r="X44" s="91">
         <f t="shared" si="50"/>
         <v>-65</v>
       </c>
-      <c r="Y44" s="97">
+      <c r="Y44" s="91">
         <f t="shared" si="50"/>
         <v>-70</v>
       </c>
-      <c r="Z44" s="97">
+      <c r="Z44" s="91">
         <f t="shared" si="50"/>
         <v>-75</v>
       </c>
-      <c r="AA44" s="97">
+      <c r="AA44" s="91">
         <f t="shared" si="50"/>
         <v>-80</v>
       </c>
-      <c r="AB44" s="97">
+      <c r="AB44" s="91">
         <f t="shared" si="50"/>
         <v>-85</v>
       </c>
@@ -6329,40 +6650,40 @@
         <v>234.85409794549645</v>
       </c>
       <c r="T52" s="74">
-        <f>$H$52*($S$39-T$39)*100</f>
+        <f>$H$52*(T40+$S$39-T$39)*100</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="74">
+        <f t="shared" ref="U52:AB52" si="58">$H$52*(U40+$S$39-U$39)*100</f>
         <v>-234.85409794549645</v>
-      </c>
-      <c r="U52" s="74">
-        <f t="shared" ref="U52:AB52" si="58">$H$52*($S$39-U$39)*100</f>
-        <v>-469.7081958909929</v>
       </c>
       <c r="V52" s="74">
         <f t="shared" si="58"/>
-        <v>-704.56229383648929</v>
+        <v>-234.85409794549645</v>
       </c>
       <c r="W52" s="74">
         <f t="shared" si="58"/>
-        <v>-939.41639178198579</v>
+        <v>-469.7081958909929</v>
       </c>
       <c r="X52" s="74">
         <f t="shared" si="58"/>
-        <v>-1174.2704897274821</v>
+        <v>-704.56229383648929</v>
       </c>
       <c r="Y52" s="74">
         <f t="shared" si="58"/>
-        <v>-1409.1245876729786</v>
+        <v>-939.41639178198579</v>
       </c>
       <c r="Z52" s="74">
         <f t="shared" si="58"/>
-        <v>-1643.9786856184749</v>
+        <v>-1174.2704897274821</v>
       </c>
       <c r="AA52" s="74">
         <f t="shared" si="58"/>
-        <v>-1878.8327835639716</v>
+        <v>-1409.1245876729786</v>
       </c>
       <c r="AB52" s="74">
         <f t="shared" si="58"/>
-        <v>-2113.6868815094681</v>
+        <v>-1643.9786856184749</v>
       </c>
     </row>
     <row r="53" spans="4:28" ht="13.8">
@@ -6400,36 +6721,36 @@
         <v>379.99393047581327</v>
       </c>
       <c r="U53" s="74">
-        <f>$H$53*($T$39-U$39)*100</f>
-        <v>-379.99393047581327</v>
+        <f>$H$53*(U40+$T$39-U$39)*100</f>
+        <v>0</v>
       </c>
       <c r="V53" s="74">
-        <f t="shared" ref="V53:AB53" si="59">$H$53*($T$39-V$39)*100</f>
-        <v>-759.98786095162654</v>
+        <f t="shared" ref="V53:AB53" si="59">$H$53*(V40+$T$39-V$39)*100</f>
+        <v>0</v>
       </c>
       <c r="W53" s="74">
         <f t="shared" si="59"/>
-        <v>-1139.9817914274397</v>
+        <v>-379.99393047581327</v>
       </c>
       <c r="X53" s="74">
         <f t="shared" si="59"/>
-        <v>-1519.9757219032531</v>
+        <v>-759.98786095162654</v>
       </c>
       <c r="Y53" s="74">
         <f t="shared" si="59"/>
-        <v>-1899.9696523790665</v>
+        <v>-1139.9817914274397</v>
       </c>
       <c r="Z53" s="74">
         <f t="shared" si="59"/>
-        <v>-2279.9635828548794</v>
+        <v>-1519.9757219032531</v>
       </c>
       <c r="AA53" s="74">
         <f t="shared" si="59"/>
-        <v>-2659.9575133306926</v>
+        <v>-1899.9696523790665</v>
       </c>
       <c r="AB53" s="74">
         <f t="shared" si="59"/>
-        <v>-3039.9514438065062</v>
+        <v>-2279.9635828548794</v>
       </c>
     </row>
     <row r="54" spans="4:28" ht="13.8">
@@ -6468,32 +6789,32 @@
         <v>614.83017950986584</v>
       </c>
       <c r="V54" s="74">
-        <f>$H$54*($U$39-V$39)*100</f>
+        <f>$H$54*(V40+$U$39-V$39)*100</f>
+        <v>614.83017950986584</v>
+      </c>
+      <c r="W54" s="74">
+        <f>$H$54*(W40+$U$39-W$39)*100</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="74">
+        <f t="shared" ref="X54:AB54" si="60">$H$54*(X40+$U$39-X$39)*100</f>
         <v>-614.83017950986584</v>
       </c>
-      <c r="W54" s="74">
-        <f t="shared" ref="W54:AB54" si="60">$H$54*($U$39-W$39)*100</f>
+      <c r="Y54" s="74">
+        <f t="shared" si="60"/>
         <v>-1229.6603590197317</v>
       </c>
-      <c r="X54" s="74">
+      <c r="Z54" s="74">
         <f t="shared" si="60"/>
         <v>-1844.4905385295974</v>
       </c>
-      <c r="Y54" s="74">
+      <c r="AA54" s="74">
         <f t="shared" si="60"/>
         <v>-2459.3207180394634</v>
       </c>
-      <c r="Z54" s="74">
+      <c r="AB54" s="74">
         <f t="shared" si="60"/>
         <v>-3074.1508975493293</v>
-      </c>
-      <c r="AA54" s="74">
-        <f t="shared" si="60"/>
-        <v>-3688.9810770591948</v>
-      </c>
-      <c r="AB54" s="74">
-        <f t="shared" si="60"/>
-        <v>-4303.8112565690608</v>
       </c>
     </row>
     <row r="55" spans="4:28" ht="13.8">
@@ -6533,28 +6854,28 @@
         <v>1989.5904608939261</v>
       </c>
       <c r="W55" s="74">
-        <f>$H$55*($V$39-W$39)*100</f>
-        <v>-994.79523044696305</v>
+        <f>$H$55*(W40+$V$39-W$39)*100</f>
+        <v>994.79523044696305</v>
       </c>
       <c r="X55" s="74">
-        <f t="shared" ref="X55:AB55" si="61">$H$55*($V$39-X$39)*100</f>
-        <v>-1989.5904608939261</v>
+        <f t="shared" ref="X55:AB55" si="61">$H$55*(X40+$V$39-X$39)*100</f>
+        <v>0</v>
       </c>
       <c r="Y55" s="74">
         <f t="shared" si="61"/>
-        <v>-2984.385691340889</v>
+        <v>-994.79523044696305</v>
       </c>
       <c r="Z55" s="74">
         <f t="shared" si="61"/>
-        <v>-3979.1809217878522</v>
+        <v>-1989.5904608939261</v>
       </c>
       <c r="AA55" s="74">
         <f t="shared" si="61"/>
-        <v>-4973.9761522348153</v>
+        <v>-2984.385691340889</v>
       </c>
       <c r="AB55" s="74">
         <f t="shared" si="61"/>
-        <v>-5968.7713826817781</v>
+        <v>-3979.1809217878522</v>
       </c>
     </row>
     <row r="56" spans="4:28" ht="13.8">
@@ -6595,24 +6916,24 @@
         <v>3219.157365726373</v>
       </c>
       <c r="X56" s="74">
-        <f>$H$56*($W$39-X$39)*100</f>
-        <v>-1609.5786828631865</v>
+        <f>$H$56*(X40+$W$39-X$39)*100</f>
+        <v>1609.5786828631865</v>
       </c>
       <c r="Y56" s="74">
-        <f t="shared" ref="Y56:AB56" si="62">$H$56*($W$39-Y$39)*100</f>
-        <v>-3219.157365726373</v>
+        <f t="shared" ref="Y56:AB56" si="62">$H$56*(Y40+$W$39-Y$39)*100</f>
+        <v>0</v>
       </c>
       <c r="Z56" s="74">
         <f t="shared" si="62"/>
-        <v>-4828.7360485895588</v>
+        <v>-1609.5786828631865</v>
       </c>
       <c r="AA56" s="74">
         <f t="shared" si="62"/>
-        <v>-6438.3147314527459</v>
+        <v>-3219.157365726373</v>
       </c>
       <c r="AB56" s="74">
         <f t="shared" si="62"/>
-        <v>-8047.8934143159322</v>
+        <v>-4828.7360485895588</v>
       </c>
     </row>
     <row r="57" spans="4:28" ht="13.8">
@@ -6654,20 +6975,20 @@
         <v>5208.5966177452719</v>
       </c>
       <c r="Y57" s="74">
-        <f>$H$57*($X$39-Y$39)*100</f>
-        <v>-2604.298308872636</v>
+        <f>$H$57*(Y40+$X$39-Y$39)*100</f>
+        <v>2604.298308872636</v>
       </c>
       <c r="Z57" s="74">
-        <f t="shared" ref="Z57:AB57" si="63">$H$57*($X$39-Z$39)*100</f>
-        <v>-5208.5966177452719</v>
+        <f t="shared" ref="Z57:AB57" si="63">$H$57*(Z40+$X$39-Z$39)*100</f>
+        <v>0</v>
       </c>
       <c r="AA57" s="74">
         <f t="shared" si="63"/>
-        <v>-7812.8949266179079</v>
+        <v>-2604.298308872636</v>
       </c>
       <c r="AB57" s="74">
         <f t="shared" si="63"/>
-        <v>-10417.193235490544</v>
+        <v>-5208.5966177452719</v>
       </c>
     </row>
     <row r="58" spans="4:28" ht="13.8">
@@ -6710,16 +7031,16 @@
         <v>8427.5093275118506</v>
       </c>
       <c r="Z58" s="74">
-        <f>$H$58*($Y$39-Z$39)*100</f>
+        <f>$H$58*(Z40+$Y$39-Z$39)*100</f>
+        <v>4213.7546637559253</v>
+      </c>
+      <c r="AA58" s="74">
+        <f>$H$58*(AA40+$Y$39-AA$39)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="74">
+        <f>$H$58*(AB40+$Y$39-AB$39)*100</f>
         <v>-4213.7546637559253</v>
-      </c>
-      <c r="AA58" s="74">
-        <f t="shared" ref="AA58:AB58" si="64">$H$58*($Y$39-AA$39)*100</f>
-        <v>-8427.5093275118506</v>
-      </c>
-      <c r="AB58" s="74">
-        <f t="shared" si="64"/>
-        <v>-12641.263991267777</v>
       </c>
     </row>
     <row r="59" spans="4:28" ht="13.8">
@@ -6763,12 +7084,12 @@
         <v>13635.710091914174</v>
       </c>
       <c r="AA59" s="74">
-        <f>$H$59*($Z$39-AA$39)*100</f>
-        <v>-6817.855045957087</v>
+        <f>$H$59*(AA40 + ($Z$39-AA$39))*100</f>
+        <v>6817.855045957087</v>
       </c>
       <c r="AB59" s="74">
-        <f>$H$59*($Z$39-AB$39)*100</f>
-        <v>-13635.710091914174</v>
+        <f>$H$59*(AB40 + ($Z$39-AB$39))*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="4:28" ht="13.8">
@@ -6813,8 +7134,8 @@
         <v>22062.578928717136</v>
       </c>
       <c r="AB60" s="74">
-        <f>$H$60*($AA$39-AB$39)*100</f>
-        <v>-11031.289464358568</v>
+        <f>$H$60*(AB40 + ($AA$39-AB$39))*100</f>
+        <v>11031.289464358568</v>
       </c>
     </row>
     <row r="61" spans="4:28" ht="13.8">
@@ -6857,7 +7178,7 @@
       <c r="AA61" s="20"/>
       <c r="AB61" s="81">
         <f>$H61*AB$40*100</f>
-        <v>107091.75811999298</v>
+        <v>35697.252706664331</v>
       </c>
     </row>
     <row r="62" spans="4:28" ht="13.8">
@@ -6871,80 +7192,80 @@
         <v>0</v>
       </c>
       <c r="J62" s="89">
-        <f t="shared" ref="J62:AB62" si="65">SUMIF(J42:J61, "&lt;0")</f>
+        <f t="shared" ref="J62:AB62" si="64">SUMIF(J42:J61, "&lt;0")</f>
         <v>-5</v>
       </c>
       <c r="K62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-15</v>
       </c>
       <c r="L62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-30</v>
       </c>
       <c r="M62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-50</v>
       </c>
       <c r="N62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-75</v>
       </c>
       <c r="O62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-105</v>
       </c>
       <c r="P62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-140</v>
       </c>
       <c r="Q62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-180</v>
       </c>
       <c r="R62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-225</v>
       </c>
       <c r="S62" s="89">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>-275</v>
       </c>
       <c r="T62" s="89">
-        <f t="shared" si="65"/>
-        <v>-559.85409794549651</v>
+        <f t="shared" si="64"/>
+        <v>-325</v>
       </c>
       <c r="U62" s="89">
-        <f t="shared" si="65"/>
-        <v>-1224.7021263668062</v>
+        <f t="shared" si="64"/>
+        <v>-609.85409794549651</v>
       </c>
       <c r="V62" s="89">
-        <f t="shared" si="65"/>
-        <v>-2504.3803342979818</v>
+        <f t="shared" si="64"/>
+        <v>-659.85409794549651</v>
       </c>
       <c r="W62" s="89">
-        <f t="shared" si="65"/>
-        <v>-4778.8537726761197</v>
+        <f t="shared" si="64"/>
+        <v>-1324.7021263668062</v>
       </c>
       <c r="X62" s="89">
-        <f t="shared" si="65"/>
-        <v>-8662.9058939174465</v>
+        <f t="shared" si="64"/>
+        <v>-2604.3803342979818</v>
       </c>
       <c r="Y62" s="89">
-        <f t="shared" si="65"/>
-        <v>-15151.256324031407</v>
+        <f t="shared" si="64"/>
+        <v>-4878.8537726761197</v>
       </c>
       <c r="Z62" s="89">
-        <f t="shared" si="65"/>
-        <v>-25853.361417901291</v>
+        <f t="shared" si="64"/>
+        <v>-8762.9058939174465</v>
       </c>
       <c r="AA62" s="89">
-        <f t="shared" si="65"/>
-        <v>-43373.321557728268</v>
+        <f t="shared" si="64"/>
+        <v>-15251.256324031407</v>
       </c>
       <c r="AB62" s="89">
-        <f t="shared" si="65"/>
-        <v>-71924.571161913802</v>
+        <f t="shared" si="64"/>
+        <v>-25953.361417901291</v>
       </c>
     </row>
     <row r="63" spans="4:28" ht="13.8">
@@ -6961,81 +7282,863 @@
         <v>30</v>
       </c>
       <c r="J63" s="88">
-        <f t="shared" ref="J63:AB63" si="66">SUM(J42:J61)</f>
+        <f t="shared" ref="J63:AB63" si="65">SUM(J42:J61)</f>
         <v>25</v>
       </c>
       <c r="K63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>15</v>
       </c>
       <c r="L63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-20</v>
       </c>
       <c r="N63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-45</v>
       </c>
       <c r="O63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-75</v>
       </c>
       <c r="P63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-110</v>
       </c>
       <c r="Q63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-150</v>
       </c>
       <c r="R63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-195</v>
       </c>
       <c r="S63" s="88">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-40.145902054503551</v>
       </c>
       <c r="T63" s="88">
-        <f t="shared" si="66"/>
-        <v>-179.86016746968323</v>
+        <f t="shared" si="65"/>
+        <v>54.993930475813272</v>
       </c>
       <c r="U63" s="88">
-        <f t="shared" si="66"/>
-        <v>-609.87194685694033</v>
+        <f t="shared" si="65"/>
+        <v>4.9760815643693377</v>
       </c>
       <c r="V63" s="88">
-        <f t="shared" si="66"/>
-        <v>-514.7898734040557</v>
+        <f t="shared" si="65"/>
+        <v>1944.5665424582953</v>
       </c>
       <c r="W63" s="88">
-        <f t="shared" si="66"/>
-        <v>-1559.6964069497467</v>
+        <f t="shared" si="65"/>
+        <v>2889.25046980653</v>
       </c>
       <c r="X63" s="88">
-        <f t="shared" si="66"/>
-        <v>-3454.3092761721746</v>
+        <f t="shared" si="65"/>
+        <v>4213.7949663104764</v>
       </c>
       <c r="Y63" s="88">
-        <f t="shared" si="66"/>
-        <v>-6723.746996519556</v>
+        <f t="shared" si="65"/>
+        <v>6152.953863708367</v>
       </c>
       <c r="Z63" s="88">
-        <f t="shared" si="66"/>
-        <v>-12217.651325987117</v>
+        <f t="shared" si="65"/>
+        <v>9086.5588617526519</v>
       </c>
       <c r="AA63" s="88">
-        <f t="shared" si="66"/>
-        <v>-21310.742629011133</v>
+        <f t="shared" si="65"/>
+        <v>13629.177650642816</v>
       </c>
       <c r="AB63" s="88">
-        <f t="shared" si="66"/>
-        <v>35167.186958079183</v>
-      </c>
+        <f t="shared" si="65"/>
+        <v>20775.180753121607</v>
+      </c>
+    </row>
+    <row r="66" spans="5:25">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+    </row>
+    <row r="67" spans="5:25">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+    </row>
+    <row r="68" spans="5:25">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+    </row>
+    <row r="69" spans="5:25">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+    </row>
+    <row r="70" spans="5:25">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+    </row>
+    <row r="71" spans="5:25">
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+    </row>
+    <row r="72" spans="5:25">
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+    </row>
+    <row r="73" spans="5:25">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+    </row>
+    <row r="74" spans="5:25">
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+    </row>
+    <row r="75" spans="5:25">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+    </row>
+    <row r="76" spans="5:25">
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+    </row>
+    <row r="77" spans="5:25">
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+    </row>
+    <row r="78" spans="5:25">
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+    </row>
+    <row r="79" spans="5:25">
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+    </row>
+    <row r="80" spans="5:25">
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+    </row>
+    <row r="81" spans="5:25">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+    </row>
+    <row r="82" spans="5:25">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+    </row>
+    <row r="83" spans="5:25">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+    </row>
+    <row r="84" spans="5:25">
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+    </row>
+    <row r="85" spans="5:25">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+    </row>
+    <row r="86" spans="5:25">
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+    </row>
+    <row r="87" spans="5:25">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+    </row>
+    <row r="88" spans="5:25">
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+    </row>
+    <row r="89" spans="5:25">
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+    </row>
+    <row r="90" spans="5:25">
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+    </row>
+    <row r="91" spans="5:25">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+    </row>
+    <row r="92" spans="5:25">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+    </row>
+    <row r="93" spans="5:25">
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+    </row>
+    <row r="94" spans="5:25">
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+    </row>
+    <row r="95" spans="5:25">
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+    </row>
+    <row r="96" spans="5:25">
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+    </row>
+    <row r="97" spans="5:25">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+    </row>
+    <row r="98" spans="5:25">
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="11"/>
+      <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="11"/>
+      <c r="Y98" s="11"/>
+    </row>
+    <row r="99" spans="5:25">
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+      <c r="Y99" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -7258,6 +8361,1375 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="101"/>
+    <col min="2" max="2" width="6" style="101" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="21"/>
+    <col min="5" max="5" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="21"/>
+    <col min="7" max="20" width="9.109375" style="101"/>
+    <col min="21" max="21" width="10.44140625" style="101" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23">
+      <c r="B1" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="100">
+        <v>1</v>
+      </c>
+      <c r="G1" s="100">
+        <v>1.6</v>
+      </c>
+      <c r="H1" s="100">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23">
+      <c r="B2" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136">
+        <v>5</v>
+      </c>
+      <c r="I2" s="136">
+        <v>5</v>
+      </c>
+      <c r="J2" s="136">
+        <v>5</v>
+      </c>
+      <c r="K2" s="136">
+        <v>5</v>
+      </c>
+      <c r="L2" s="136">
+        <v>5</v>
+      </c>
+      <c r="M2" s="136">
+        <v>5</v>
+      </c>
+      <c r="N2" s="137">
+        <v>5</v>
+      </c>
+      <c r="O2" s="129">
+        <v>3</v>
+      </c>
+      <c r="P2" s="130">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="131">
+        <v>3</v>
+      </c>
+      <c r="R2" s="114">
+        <v>2</v>
+      </c>
+      <c r="S2" s="115">
+        <v>2</v>
+      </c>
+      <c r="T2" s="115">
+        <v>2</v>
+      </c>
+      <c r="U2" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="111"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139">
+        <f>H2</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="139">
+        <f>SUM($H$2:I2)</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="139">
+        <f>SUM($H$2:J2)</f>
+        <v>15</v>
+      </c>
+      <c r="K3" s="139">
+        <f>SUM($H$2:K2)</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="139">
+        <f>SUM($H$2:L2)</f>
+        <v>25</v>
+      </c>
+      <c r="M3" s="139">
+        <f>SUM($H$2:M2)</f>
+        <v>30</v>
+      </c>
+      <c r="N3" s="140">
+        <f>SUM($H$2:N2)</f>
+        <v>35</v>
+      </c>
+      <c r="O3" s="132">
+        <f>SUM($H$2:O2)</f>
+        <v>38</v>
+      </c>
+      <c r="P3" s="133">
+        <f>SUM($H$2:P2)</f>
+        <v>41</v>
+      </c>
+      <c r="Q3" s="134">
+        <f>SUM($H$2:Q2)</f>
+        <v>44</v>
+      </c>
+      <c r="R3" s="117">
+        <f>SUM($H$2:R2)</f>
+        <v>46</v>
+      </c>
+      <c r="S3" s="118">
+        <f>SUM($H$2:S2)</f>
+        <v>48</v>
+      </c>
+      <c r="T3" s="118">
+        <f>SUM($H$2:T2)</f>
+        <v>50</v>
+      </c>
+      <c r="U3" s="119">
+        <f>SUM($H$2:U2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="138">
+        <v>30</v>
+      </c>
+      <c r="H4" s="139">
+        <v>30</v>
+      </c>
+      <c r="I4" s="139">
+        <v>30</v>
+      </c>
+      <c r="J4" s="139">
+        <v>30</v>
+      </c>
+      <c r="K4" s="139">
+        <v>30</v>
+      </c>
+      <c r="L4" s="139">
+        <v>30</v>
+      </c>
+      <c r="M4" s="139">
+        <v>30</v>
+      </c>
+      <c r="N4" s="140">
+        <v>30</v>
+      </c>
+      <c r="O4" s="132">
+        <v>5</v>
+      </c>
+      <c r="P4" s="133">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="134">
+        <v>5</v>
+      </c>
+      <c r="R4" s="117">
+        <v>3</v>
+      </c>
+      <c r="S4" s="118">
+        <v>3</v>
+      </c>
+      <c r="T4" s="118">
+        <v>3</v>
+      </c>
+      <c r="U4" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="14.4">
+      <c r="B5" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="106">
+        <f>F1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="106">
+        <f>G1</f>
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="106">
+        <f>H1</f>
+        <v>1.7</v>
+      </c>
+      <c r="F5" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="19">
+        <f>C6</f>
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="19">
+        <f>C6</f>
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="110">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="126">
+        <f>F6*G4*100</f>
+        <v>30</v>
+      </c>
+      <c r="H6" s="142">
+        <f>$F$6*(H4-H3)*100</f>
+        <v>25</v>
+      </c>
+      <c r="I6" s="142">
+        <f t="shared" ref="I6:U6" si="0">$F$6*(I4-I3)*100</f>
+        <v>20</v>
+      </c>
+      <c r="J6" s="142">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K6" s="142">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="142">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="142">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="143">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="O6" s="123">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+      <c r="P6" s="124">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="Q6" s="125">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+      <c r="R6" s="123">
+        <f t="shared" si="0"/>
+        <v>-43</v>
+      </c>
+      <c r="S6" s="124">
+        <f t="shared" si="0"/>
+        <v>-45</v>
+      </c>
+      <c r="T6" s="124">
+        <f t="shared" si="0"/>
+        <v>-47</v>
+      </c>
+      <c r="U6" s="125">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="19">
+        <f>C6*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7:D20" si="1">D6*$G$1</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:E20" si="2">E6*$H$1</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F7" s="19">
+        <f>F6*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="127">
+        <f>F7*H4*100</f>
+        <v>30</v>
+      </c>
+      <c r="I7" s="142">
+        <f>$F$7*(I4-(I3-H3))*100</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="142">
+        <f>$F$7*100*(J4-(J3-$H$3))</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="142">
+        <f t="shared" ref="K7:U7" si="3">$F$7*100*(K4-(K3-$H$3))</f>
+        <v>15</v>
+      </c>
+      <c r="L7" s="142">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M7" s="142">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="123">
+        <f t="shared" si="3"/>
+        <v>-28</v>
+      </c>
+      <c r="P7" s="124">
+        <f t="shared" si="3"/>
+        <v>-31</v>
+      </c>
+      <c r="Q7" s="125">
+        <f t="shared" si="3"/>
+        <v>-34</v>
+      </c>
+      <c r="R7" s="123">
+        <f t="shared" si="3"/>
+        <v>-38</v>
+      </c>
+      <c r="S7" s="124">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="T7" s="124">
+        <f t="shared" si="3"/>
+        <v>-42</v>
+      </c>
+      <c r="U7" s="125">
+        <f t="shared" si="3"/>
+        <v>-44</v>
+      </c>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="19">
+        <f>C7*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8900000000000002E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <f>F7*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="144"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="127">
+        <f>F8*I4*100</f>
+        <v>30</v>
+      </c>
+      <c r="J8" s="142">
+        <f>$F$8*100*(J4 -(J3-$I$3))</f>
+        <v>25</v>
+      </c>
+      <c r="K8" s="142">
+        <f t="shared" ref="K8:U8" si="4">$F$8*100*(K4 -(K3-$I$3))</f>
+        <v>20</v>
+      </c>
+      <c r="L8" s="142">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M8" s="142">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N8" s="143">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="123">
+        <f t="shared" si="4"/>
+        <v>-23</v>
+      </c>
+      <c r="P8" s="124">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="Q8" s="125">
+        <f t="shared" si="4"/>
+        <v>-29</v>
+      </c>
+      <c r="R8" s="123">
+        <f t="shared" si="4"/>
+        <v>-33</v>
+      </c>
+      <c r="S8" s="124">
+        <f t="shared" si="4"/>
+        <v>-35</v>
+      </c>
+      <c r="T8" s="124">
+        <f t="shared" si="4"/>
+        <v>-37</v>
+      </c>
+      <c r="U8" s="125">
+        <f t="shared" si="4"/>
+        <v>-39</v>
+      </c>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" ref="C9:C20" si="5">C8*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="2"/>
+        <v>4.913E-2</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" ref="F9:F13" si="6">F8*$F$1</f>
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="144"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="127">
+        <f>F9*J4*100</f>
+        <v>30</v>
+      </c>
+      <c r="K9" s="142">
+        <f>$F$9*(K4-(K3-$J$3))*100</f>
+        <v>25</v>
+      </c>
+      <c r="L9" s="142">
+        <f t="shared" ref="L9:U9" si="7">$F$9*(L4-(L3-$J$3))*100</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="142">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="N9" s="143">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="O9" s="123">
+        <f t="shared" si="7"/>
+        <v>-18</v>
+      </c>
+      <c r="P9" s="124">
+        <f t="shared" si="7"/>
+        <v>-21</v>
+      </c>
+      <c r="Q9" s="125">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="R9" s="123">
+        <f t="shared" si="7"/>
+        <v>-28.000000000000004</v>
+      </c>
+      <c r="S9" s="124">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="T9" s="124">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="U9" s="125">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="1"/>
+        <v>6.5536000000000011E-2</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="2"/>
+        <v>8.3520999999999998E-2</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="144"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="127">
+        <f>F10*K4*100</f>
+        <v>30</v>
+      </c>
+      <c r="L10" s="142">
+        <f>$F$10*(L4-(L3-$K$3))*100</f>
+        <v>25</v>
+      </c>
+      <c r="M10" s="142">
+        <f>$F$10*(M4-(M3-$K$3))*100</f>
+        <v>20</v>
+      </c>
+      <c r="N10" s="143">
+        <f t="shared" ref="N10:U10" si="8">$F$10*(N4-(N3-$K$3))*100</f>
+        <v>15</v>
+      </c>
+      <c r="O10" s="123">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+      <c r="P10" s="124">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+      <c r="Q10" s="125">
+        <f t="shared" si="8"/>
+        <v>-19</v>
+      </c>
+      <c r="R10" s="123">
+        <f t="shared" si="8"/>
+        <v>-23</v>
+      </c>
+      <c r="S10" s="124">
+        <f t="shared" si="8"/>
+        <v>-25</v>
+      </c>
+      <c r="T10" s="124">
+        <f t="shared" si="8"/>
+        <v>-27</v>
+      </c>
+      <c r="U10" s="125">
+        <f t="shared" si="8"/>
+        <v>-28.999999999999996</v>
+      </c>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10485760000000002</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="2"/>
+        <v>0.14198569999999999</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="144"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="127">
+        <f>F11*L4*100</f>
+        <v>30</v>
+      </c>
+      <c r="M11" s="142">
+        <f>$F$11*(M4-(M3-$L$3))*100</f>
+        <v>25</v>
+      </c>
+      <c r="N11" s="143">
+        <f>$F$11*(N4-(N3-$L$3))*100</f>
+        <v>20</v>
+      </c>
+      <c r="O11" s="123">
+        <f t="shared" ref="O11:U11" si="9">$F$11*(O4-(O3-$L$3))*100</f>
+        <v>-8</v>
+      </c>
+      <c r="P11" s="124">
+        <f t="shared" si="9"/>
+        <v>-11</v>
+      </c>
+      <c r="Q11" s="125">
+        <f t="shared" si="9"/>
+        <v>-14.000000000000002</v>
+      </c>
+      <c r="R11" s="123">
+        <f t="shared" si="9"/>
+        <v>-18</v>
+      </c>
+      <c r="S11" s="124">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="T11" s="124">
+        <f t="shared" si="9"/>
+        <v>-22</v>
+      </c>
+      <c r="U11" s="125">
+        <f t="shared" si="9"/>
+        <v>-24</v>
+      </c>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.16777216000000006</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.24137568999999998</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="127">
+        <f>F12*M4*100</f>
+        <v>30</v>
+      </c>
+      <c r="N12" s="143">
+        <f>$F$12*(N4-(N3-$M$3))*100</f>
+        <v>25</v>
+      </c>
+      <c r="O12" s="123">
+        <f>$F$12*(O4-(O3-$M$3))*100</f>
+        <v>-3</v>
+      </c>
+      <c r="P12" s="124">
+        <f t="shared" ref="P12:U12" si="10">$F$12*(P4-(P3-$M$3))*100</f>
+        <v>-6</v>
+      </c>
+      <c r="Q12" s="125">
+        <f t="shared" si="10"/>
+        <v>-9</v>
+      </c>
+      <c r="R12" s="123">
+        <f t="shared" si="10"/>
+        <v>-13</v>
+      </c>
+      <c r="S12" s="124">
+        <f t="shared" si="10"/>
+        <v>-15</v>
+      </c>
+      <c r="T12" s="124">
+        <f t="shared" si="10"/>
+        <v>-17</v>
+      </c>
+      <c r="U12" s="125">
+        <f t="shared" si="10"/>
+        <v>-19</v>
+      </c>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.26843545600000013</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="2"/>
+        <v>0.41033867299999993</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="128">
+        <f>F13*N4*100</f>
+        <v>30</v>
+      </c>
+      <c r="O13" s="123">
+        <f>$F$13*(O4-(O3-$N$3))*100</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="124">
+        <f>$F$13*(P4-(P3-$N$3))*100</f>
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="125">
+        <f t="shared" ref="Q13:U13" si="11">$F$13*(Q4-(Q3-$N$3))*100</f>
+        <v>-4</v>
+      </c>
+      <c r="R13" s="123">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+      <c r="S13" s="124">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="T13" s="124">
+        <f t="shared" si="11"/>
+        <v>-12</v>
+      </c>
+      <c r="U13" s="125">
+        <f t="shared" si="11"/>
+        <v>-14.000000000000002</v>
+      </c>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.42949672960000024</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="2"/>
+        <v>0.69757574409999989</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="126">
+        <f>F14*O4*100</f>
+        <v>215</v>
+      </c>
+      <c r="P14" s="124">
+        <f>$F$14*(P4-(P3-$O$3))*100</f>
+        <v>86</v>
+      </c>
+      <c r="Q14" s="125">
+        <f>$F$14*(Q4-(Q3-$O$3))*100</f>
+        <v>-43</v>
+      </c>
+      <c r="R14" s="123">
+        <f t="shared" ref="R14:U14" si="12">$F$14*(R4-(R3-$O$3))*100</f>
+        <v>-215</v>
+      </c>
+      <c r="S14" s="124">
+        <f t="shared" si="12"/>
+        <v>-301</v>
+      </c>
+      <c r="T14" s="124">
+        <f t="shared" si="12"/>
+        <v>-387</v>
+      </c>
+      <c r="U14" s="125">
+        <f t="shared" si="12"/>
+        <v>-472.99999999999994</v>
+      </c>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+    </row>
+    <row r="15" spans="2:23" ht="14.1" customHeight="1">
+      <c r="B15" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.6871947673600004</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="2"/>
+        <v>1.1858787649699998</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="127">
+        <f>F15*P4*100</f>
+        <v>345</v>
+      </c>
+      <c r="Q15" s="125">
+        <f>$F$15*(Q4-(Q3-$P$3))*100</f>
+        <v>138</v>
+      </c>
+      <c r="R15" s="123">
+        <f>$F$15*(R4-(R3-$P$3))*100</f>
+        <v>-138</v>
+      </c>
+      <c r="S15" s="124">
+        <f t="shared" ref="S15:U15" si="13">$F$15*(S4-(S3-$P$3))*100</f>
+        <v>-276</v>
+      </c>
+      <c r="T15" s="124">
+        <f t="shared" si="13"/>
+        <v>-413.99999999999994</v>
+      </c>
+      <c r="U15" s="125">
+        <f t="shared" si="13"/>
+        <v>-552</v>
+      </c>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0995116277760006</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="2"/>
+        <v>2.0159939004489997</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="128">
+        <f>F16*Q4*100</f>
+        <v>550</v>
+      </c>
+      <c r="R16" s="123">
+        <f>$F$16*(R4-(R3-$Q$3))*100</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="S16" s="124">
+        <f>$F$16*(S4-(S3-$Q$3))*100</f>
+        <v>-110.00000000000001</v>
+      </c>
+      <c r="T16" s="124">
+        <f t="shared" ref="T16:U16" si="14">$F$16*(T4-(T3-$Q$3))*100</f>
+        <v>-330</v>
+      </c>
+      <c r="U16" s="125">
+        <f t="shared" si="14"/>
+        <v>-550</v>
+      </c>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="1"/>
+        <v>1.7592186044416012</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="2"/>
+        <v>3.4271896307632996</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1.76</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="126">
+        <f>F17*R4*100</f>
+        <v>528</v>
+      </c>
+      <c r="S17" s="124">
+        <f>$F$17*(S4-(S3-$R$3))*100</f>
+        <v>176</v>
+      </c>
+      <c r="T17" s="124">
+        <f>$F$17*(T4-(T3-$R$3))*100</f>
+        <v>-176</v>
+      </c>
+      <c r="U17" s="125">
+        <f t="shared" ref="U17" si="15">$F$17*(U4-(U3-$R$3))*100</f>
+        <v>-528</v>
+      </c>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8147497671065622</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="2"/>
+        <v>5.8262223722976092</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5.83</v>
+      </c>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="127">
+        <f>F18*S4*100</f>
+        <v>1749.0000000000002</v>
+      </c>
+      <c r="T18" s="124">
+        <f>$F$18*(T4-(T3-$S$3))*100</f>
+        <v>583</v>
+      </c>
+      <c r="U18" s="125">
+        <f>$F$18*(U4-(U3-$S$3))*100</f>
+        <v>-583</v>
+      </c>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="1"/>
+        <v>4.5035996273704999</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="2"/>
+        <v>9.9045780329059347</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="127">
+        <f>F19*T4*100</f>
+        <v>2970.0000000000005</v>
+      </c>
+      <c r="U19" s="125">
+        <f>$F$19*(U4-(U3-$T$3))*100</f>
+        <v>990</v>
+      </c>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="1"/>
+        <v>7.2057594037928006</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="2"/>
+        <v>16.837782655940089</v>
+      </c>
+      <c r="F20" s="145">
+        <v>16.84</v>
+      </c>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="149">
+        <f>F20*U4*100</f>
+        <v>5052</v>
+      </c>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="F21" s="109">
+        <f>SUM(F6:F20)</f>
+        <v>36.629999999999995</v>
+      </c>
+      <c r="G21" s="113">
+        <f>SUMIF(G5:G20, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="150">
+        <f t="shared" ref="H21:U21" si="16">SUMIF(H5:H20, "&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="151">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="O21" s="113">
+        <f t="shared" si="16"/>
+        <v>-126</v>
+      </c>
+      <c r="P21" s="150">
+        <f t="shared" si="16"/>
+        <v>-148</v>
+      </c>
+      <c r="Q21" s="151">
+        <f t="shared" si="16"/>
+        <v>-215</v>
+      </c>
+      <c r="R21" s="113">
+        <f t="shared" si="16"/>
+        <v>-557</v>
+      </c>
+      <c r="S21" s="150">
+        <f t="shared" si="16"/>
+        <v>-907</v>
+      </c>
+      <c r="T21" s="150">
+        <f t="shared" si="16"/>
+        <v>-1543</v>
+      </c>
+      <c r="U21" s="151">
+        <f t="shared" si="16"/>
+        <v>-2938</v>
+      </c>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="F22" s="101"/>
+      <c r="G22" s="113">
+        <f>SUM(G6:G20)</f>
+        <v>30</v>
+      </c>
+      <c r="H22" s="150">
+        <f>SUM(H6:H20)</f>
+        <v>55</v>
+      </c>
+      <c r="I22" s="150">
+        <f>SUM(I6:I20)</f>
+        <v>75</v>
+      </c>
+      <c r="J22" s="150">
+        <f>SUM(J6:J20)</f>
+        <v>90</v>
+      </c>
+      <c r="K22" s="150">
+        <f>SUM(K6:K20)</f>
+        <v>100</v>
+      </c>
+      <c r="L22" s="150">
+        <f>SUM(L6:L20)</f>
+        <v>105</v>
+      </c>
+      <c r="M22" s="150">
+        <f>SUM(M6:M20)</f>
+        <v>105</v>
+      </c>
+      <c r="N22" s="151">
+        <f>SUM(N6:N20)</f>
+        <v>100</v>
+      </c>
+      <c r="O22" s="113">
+        <f>SUM(O6:O20)</f>
+        <v>91</v>
+      </c>
+      <c r="P22" s="150">
+        <f>SUM(P6:P20)</f>
+        <v>283</v>
+      </c>
+      <c r="Q22" s="151">
+        <f>SUM(Q6:Q20)</f>
+        <v>473</v>
+      </c>
+      <c r="R22" s="113">
+        <f>SUM(R6:R20)</f>
+        <v>81</v>
+      </c>
+      <c r="S22" s="150">
+        <f>SUM(S6:S20)</f>
+        <v>1018.0000000000002</v>
+      </c>
+      <c r="T22" s="150">
+        <f>SUM(T6:T20)</f>
+        <v>2010.0000000000005</v>
+      </c>
+      <c r="U22" s="151">
+        <f>SUM(U6:U20)</f>
+        <v>3104</v>
+      </c>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="F23" s="101"/>
+      <c r="G23" s="108"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="F24" s="101"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="F25" s="101"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="F26" s="101"/>
+      <c r="W26" s="108"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="F27" s="101"/>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="F28" s="101"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="F29" s="101"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AU56"/>
   <sheetViews>
     <sheetView topLeftCell="K149" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -7337,7 +9809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K169:L169"/>
   <sheetViews>

--- a/bsc_scan_binance/src/main/resources/MQL5/LotSize.xlsx
+++ b/bsc_scan_binance/src/main/resources/MQL5/LotSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Projects\ScanBinance\bsc_scan_binance\src\main\resources\MQL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6855CC0-1EAA-4EA5-8D05-4C5453BD3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2387F07B-E9E4-4A0F-9764-89C83A82721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="32100" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="0" windowWidth="34824" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng Input L30" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>THÔNG TIN ĐẦU VÀO</t>
   </si>
@@ -368,6 +368,14 @@
   </si>
   <si>
     <t>DCA</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Profit</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Volume</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1407,6 +1415,129 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,129 +1566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="14" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,147 +1578,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -2938,7 +2806,7 @@
   <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2949,19 +2817,25 @@
     <col min="5" max="6" width="9.09765625" style="5"/>
     <col min="7" max="7" width="19" style="5" customWidth="1"/>
     <col min="8" max="17" width="10.59765625" style="5" customWidth="1"/>
-    <col min="18" max="20" width="8.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="9.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.09765625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="1:28" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A2" s="46" t="s">
@@ -2970,23 +2844,23 @@
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77" t="s">
+      <c r="K2" s="118"/>
+      <c r="L2" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="118"/>
+      <c r="N2" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
       <c r="Q2" s="40"/>
       <c r="R2" s="40"/>
       <c r="S2" s="40"/>
@@ -3004,27 +2878,27 @@
       <c r="C3" s="48"/>
       <c r="D3" s="43">
         <f>D2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="74">
+      <c r="J3" s="115">
         <f>SUM('Bảng Input L30'!B13:B37)</f>
-        <v>39.471209029764786</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75">
+        <v>186.94729516330176</v>
+      </c>
+      <c r="K3" s="115"/>
+      <c r="L3" s="116">
         <f>J3*91</f>
-        <v>3591.8800217085955</v>
-      </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76">
+        <v>17012.203859860459</v>
+      </c>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117">
         <f>L3+'Bảng Input L30'!C35</f>
-        <v>12686.833669709755</v>
-      </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+        <v>28554.063882314214</v>
+      </c>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -3042,14 +2916,14 @@
       <c r="C4" s="48"/>
       <c r="D4" s="43">
         <f>D3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="55">
         <f>D9</f>
-        <v>1.6180000000000001</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="I4" s="1">
         <v>1.3819999999999999</v>
@@ -3078,13 +2952,13 @@
       <c r="C5" s="48"/>
       <c r="D5" s="43">
         <f>D4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>1.6180000000000001</v>
@@ -3113,13 +2987,13 @@
       <c r="C6" s="48"/>
       <c r="D6" s="43">
         <f>D5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="41" t="s">
         <v>13</v>
@@ -3133,7 +3007,7 @@
       <c r="C7" s="48"/>
       <c r="D7" s="43">
         <f>D6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3142,79 +3016,79 @@
       </c>
       <c r="J7" s="38">
         <f>I7-H$5</f>
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" ref="K7:X7" si="0">J7-$H$5</f>
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" si="0"/>
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="0"/>
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="0"/>
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="O7" s="38">
         <f t="shared" si="0"/>
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="P7" s="38">
         <f t="shared" si="0"/>
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="Q7" s="38">
         <f t="shared" si="0"/>
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="R7" s="38">
         <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>2182</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="0"/>
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="0"/>
-        <v>2189</v>
+        <v>2178</v>
       </c>
       <c r="U7" s="38">
         <f t="shared" si="0"/>
-        <v>2188</v>
+        <v>2176</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="0"/>
-        <v>2187</v>
+        <v>2174</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="0"/>
-        <v>2186</v>
+        <v>2172</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="0"/>
-        <v>2185</v>
+        <v>2170</v>
       </c>
       <c r="Y7" s="38">
         <f t="shared" ref="Y7" si="1">X7-$H$5</f>
-        <v>2184</v>
+        <v>2168</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" ref="Z7" si="2">Y7-$H$5</f>
-        <v>2183</v>
+        <v>2166</v>
       </c>
       <c r="AA7" s="38">
         <f t="shared" ref="AA7" si="3">Z7-$H$5</f>
-        <v>2182</v>
+        <v>2164</v>
       </c>
       <c r="AB7" s="38">
         <f t="shared" ref="AB7" si="4">AA7-$H$5</f>
-        <v>2181</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -3224,7 +3098,7 @@
       <c r="B8" s="47"/>
       <c r="C8" s="48"/>
       <c r="D8" s="44">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3233,79 +3107,79 @@
       </c>
       <c r="J8" s="38">
         <f t="shared" ref="J8:X8" si="5">$I$7-J7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N8" s="38">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O8" s="38">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P8" s="38">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="38">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R8" s="38">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S8" s="38">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T8" s="38">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U8" s="38">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="V8" s="38">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="W8" s="38">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X8" s="38">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="38">
         <f t="shared" ref="Y8:AB8" si="6">$I$7-Y7</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="38">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA8" s="38">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="38">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -3315,7 +3189,7 @@
       <c r="B9" s="47"/>
       <c r="C9" s="48"/>
       <c r="D9" s="45">
-        <v>1.6180000000000001</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>16</v>
@@ -3468,87 +3342,87 @@
       </c>
       <c r="H11" s="35">
         <f>'Bảng Input L30'!B13</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I11" s="31">
         <f>H11*H6*100</f>
-        <v>30.000000000000004</v>
+        <v>2</v>
       </c>
       <c r="J11" s="31">
         <f>H11*100*(H6-H5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11" s="31">
         <f t="shared" ref="K11:AB11" si="7">$H$11*100*($H$6-$H$5*J10)</f>
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="L11" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M11" s="31">
         <f>$H$11*100*($H$6-$H$5*L10)</f>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="N11" s="31">
         <f t="shared" si="7"/>
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="7"/>
-        <v>-40</v>
+        <v>-12</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="7"/>
-        <v>-50</v>
+        <v>-14</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="7"/>
-        <v>-60</v>
+        <v>-16</v>
       </c>
       <c r="S11" s="31">
         <f t="shared" si="7"/>
-        <v>-70</v>
+        <v>-18</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="7"/>
-        <v>-80</v>
+        <v>-20</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>-90</v>
+        <v>-22</v>
       </c>
       <c r="V11" s="31">
         <f t="shared" si="7"/>
-        <v>-100</v>
+        <v>-24</v>
       </c>
       <c r="W11" s="31">
         <f t="shared" si="7"/>
-        <v>-110</v>
+        <v>-26</v>
       </c>
       <c r="X11" s="31">
         <f t="shared" si="7"/>
-        <v>-120</v>
+        <v>-28</v>
       </c>
       <c r="Y11" s="31">
         <f t="shared" si="7"/>
-        <v>-130</v>
+        <v>-30</v>
       </c>
       <c r="Z11" s="31">
         <f t="shared" si="7"/>
-        <v>-140</v>
+        <v>-32</v>
       </c>
       <c r="AA11" s="31">
         <f t="shared" si="7"/>
-        <v>-150</v>
+        <v>-34</v>
       </c>
       <c r="AB11" s="31">
         <f t="shared" si="7"/>
-        <v>-160</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3569,84 +3443,84 @@
       </c>
       <c r="H12" s="30">
         <f t="shared" ref="H12:H30" si="8">H11*$H$4</f>
-        <v>0.16180000000000003</v>
+        <v>2.6179999999999998E-2</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="31">
         <f>H12*100*H6</f>
-        <v>48.540000000000006</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="K12" s="31">
         <f>H12*100*(H6-H5)</f>
-        <v>32.360000000000007</v>
+        <v>0</v>
       </c>
       <c r="L12" s="31">
         <f t="shared" ref="L12:AB12" si="9">$H$12*100*($H$6-$H$5*J10)</f>
-        <v>16.180000000000003</v>
+        <v>-5.2359999999999998</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-10.472</v>
       </c>
       <c r="N12" s="31">
         <f t="shared" si="9"/>
-        <v>-16.180000000000003</v>
+        <v>-15.707999999999998</v>
       </c>
       <c r="O12" s="31">
         <f t="shared" si="9"/>
-        <v>-32.360000000000007</v>
+        <v>-20.943999999999999</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>-48.540000000000006</v>
+        <v>-26.18</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="9"/>
-        <v>-64.720000000000013</v>
+        <v>-31.415999999999997</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="9"/>
-        <v>-80.90000000000002</v>
+        <v>-36.652000000000001</v>
       </c>
       <c r="S12" s="31">
         <f t="shared" si="9"/>
-        <v>-97.080000000000013</v>
+        <v>-41.887999999999998</v>
       </c>
       <c r="T12" s="31">
         <f t="shared" si="9"/>
-        <v>-113.26000000000002</v>
+        <v>-47.123999999999995</v>
       </c>
       <c r="U12" s="31">
         <f t="shared" si="9"/>
-        <v>-129.44000000000003</v>
+        <v>-52.36</v>
       </c>
       <c r="V12" s="31">
         <f t="shared" si="9"/>
-        <v>-145.62000000000003</v>
+        <v>-57.595999999999997</v>
       </c>
       <c r="W12" s="31">
         <f t="shared" si="9"/>
-        <v>-161.80000000000004</v>
+        <v>-62.831999999999994</v>
       </c>
       <c r="X12" s="31">
         <f t="shared" si="9"/>
-        <v>-177.98000000000005</v>
+        <v>-68.067999999999998</v>
       </c>
       <c r="Y12" s="31">
         <f t="shared" si="9"/>
-        <v>-194.16000000000003</v>
+        <v>-73.304000000000002</v>
       </c>
       <c r="Z12" s="31">
         <f t="shared" si="9"/>
-        <v>-210.34000000000003</v>
+        <v>-78.539999999999992</v>
       </c>
       <c r="AA12" s="31">
         <f t="shared" si="9"/>
-        <v>-226.52000000000004</v>
+        <v>-83.775999999999996</v>
       </c>
       <c r="AB12" s="31">
         <f t="shared" si="9"/>
-        <v>-242.70000000000005</v>
+        <v>-89.012</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.3">
@@ -3656,96 +3530,96 @@
       </c>
       <c r="B13" s="8">
         <f>+D8</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="9">
         <f>+B13*D13*100</f>
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9">
         <f>IF(A13=0,0,$D$2+$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G13" s="34">
         <v>3</v>
       </c>
       <c r="H13" s="30">
         <f t="shared" si="8"/>
-        <v>0.26179240000000004</v>
+        <v>6.8539239999999987E-2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="31">
         <f>H13*100*H6</f>
-        <v>78.537720000000007</v>
+        <v>13.707847999999997</v>
       </c>
       <c r="L13" s="31">
         <f>H13*100*(H6-H5)</f>
-        <v>52.358480000000007</v>
+        <v>0</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:AB13" si="10">$H$13*100*($H$6-$H$5*J10)</f>
-        <v>26.179240000000004</v>
+        <v>-13.707847999999997</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-27.415695999999993</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="10"/>
-        <v>-26.179240000000004</v>
+        <v>-41.123543999999988</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="10"/>
-        <v>-52.358480000000007</v>
+        <v>-54.831391999999987</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="10"/>
-        <v>-78.537720000000007</v>
+        <v>-68.539239999999978</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="10"/>
-        <v>-104.71696000000001</v>
+        <v>-82.247087999999977</v>
       </c>
       <c r="S13" s="31">
         <f t="shared" si="10"/>
-        <v>-130.89620000000002</v>
+        <v>-95.954935999999975</v>
       </c>
       <c r="T13" s="31">
         <f t="shared" si="10"/>
-        <v>-157.07544000000001</v>
+        <v>-109.66278399999997</v>
       </c>
       <c r="U13" s="31">
         <f t="shared" si="10"/>
-        <v>-183.25468000000004</v>
+        <v>-123.37063199999997</v>
       </c>
       <c r="V13" s="31">
         <f t="shared" si="10"/>
-        <v>-209.43392000000003</v>
+        <v>-137.07847999999996</v>
       </c>
       <c r="W13" s="31">
         <f t="shared" si="10"/>
-        <v>-235.61316000000002</v>
+        <v>-150.78632799999997</v>
       </c>
       <c r="X13" s="31">
         <f t="shared" si="10"/>
-        <v>-261.79240000000004</v>
+        <v>-164.49417599999995</v>
       </c>
       <c r="Y13" s="31">
         <f t="shared" si="10"/>
-        <v>-287.97164000000004</v>
+        <v>-178.20202399999997</v>
       </c>
       <c r="Z13" s="31">
         <f t="shared" si="10"/>
-        <v>-314.15088000000003</v>
+        <v>-191.90987199999995</v>
       </c>
       <c r="AA13" s="31">
         <f t="shared" si="10"/>
-        <v>-340.33012000000002</v>
+        <v>-205.61771999999996</v>
       </c>
       <c r="AB13" s="31">
         <f t="shared" si="10"/>
-        <v>-366.50936000000007</v>
+        <v>-219.32556799999995</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -3755,93 +3629,93 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" ref="B14:B34" si="12">IF(A14&lt;&gt;0,B13*$D$9,0)</f>
-        <v>0.16180000000000003</v>
+        <v>2.6179999999999998E-2</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14:C34" si="13">+B14*D14*100</f>
-        <v>388.32000000000005</v>
+        <v>41.887999999999998</v>
       </c>
       <c r="D14" s="9">
         <f>IF(A14=0,0,$D$3+$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G14" s="34">
         <v>4</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" si="8"/>
-        <v>0.42358010320000011</v>
+        <v>0.17943573031999996</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="31">
         <f>H14*100*H6</f>
-        <v>127.07403096000004</v>
+        <v>35.887146063999992</v>
       </c>
       <c r="M14" s="31">
         <f>H14*100*(H6-H5)</f>
-        <v>84.716020640000025</v>
+        <v>0</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" ref="N14:AB14" si="14">$H$14*100*($H$6-$H$5*J10)</f>
-        <v>42.358010320000012</v>
+        <v>-35.887146063999992</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-71.774292127999985</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="14"/>
-        <v>-42.358010320000012</v>
+        <v>-107.66143819199998</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="14"/>
-        <v>-84.716020640000025</v>
+        <v>-143.54858425599997</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" si="14"/>
-        <v>-127.07403096000004</v>
+        <v>-179.43573031999995</v>
       </c>
       <c r="S14" s="31">
         <f t="shared" si="14"/>
-        <v>-169.43204128000005</v>
+        <v>-215.32287638399995</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="14"/>
-        <v>-211.79005160000006</v>
+        <v>-251.21002244799996</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="14"/>
-        <v>-254.14806192000009</v>
+        <v>-287.09716851199994</v>
       </c>
       <c r="V14" s="31">
         <f t="shared" si="14"/>
-        <v>-296.50607224000009</v>
+        <v>-322.98431457599992</v>
       </c>
       <c r="W14" s="31">
         <f t="shared" si="14"/>
-        <v>-338.8640825600001</v>
+        <v>-358.8714606399999</v>
       </c>
       <c r="X14" s="31">
         <f t="shared" si="14"/>
-        <v>-381.2220928800001</v>
+        <v>-394.75860670399993</v>
       </c>
       <c r="Y14" s="31">
         <f t="shared" si="14"/>
-        <v>-423.58010320000011</v>
+        <v>-430.64575276799991</v>
       </c>
       <c r="Z14" s="31">
         <f t="shared" si="14"/>
-        <v>-465.93811352000012</v>
+        <v>-466.53289883199989</v>
       </c>
       <c r="AA14" s="31">
         <f t="shared" si="14"/>
-        <v>-508.29612384000018</v>
+        <v>-502.42004489599992</v>
       </c>
       <c r="AB14" s="31">
         <f t="shared" si="14"/>
-        <v>-550.65413416000013</v>
+        <v>-538.30719095999984</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -3851,22 +3725,22 @@
       </c>
       <c r="B15" s="10">
         <f t="shared" si="12"/>
-        <v>0.26179240000000004</v>
+        <v>6.8539239999999987E-2</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="13"/>
-        <v>549.76404000000002</v>
+        <v>95.954935999999975</v>
       </c>
       <c r="D15" s="9">
         <f>IF(A15=0,0,$D$4+$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G15" s="34">
         <v>5</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="8"/>
-        <v>0.68535260697760025</v>
+        <v>0.46976274197775986</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
@@ -3874,67 +3748,67 @@
       <c r="L15" s="3"/>
       <c r="M15" s="31">
         <f>H15*H6*100</f>
-        <v>205.60578209328008</v>
+        <v>93.952548395551972</v>
       </c>
       <c r="N15" s="31">
         <f>H15*100*(H6-H5)</f>
-        <v>137.07052139552005</v>
+        <v>0</v>
       </c>
       <c r="O15" s="31">
         <f t="shared" ref="O15:AB15" si="15">$H$15*100*($H$6-$H$5*J10)</f>
-        <v>68.535260697760023</v>
+        <v>-93.952548395551972</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-187.90509679110394</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="15"/>
-        <v>-68.535260697760023</v>
+        <v>-281.85764518665593</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="15"/>
-        <v>-137.07052139552005</v>
+        <v>-375.81019358220789</v>
       </c>
       <c r="S15" s="31">
         <f t="shared" si="15"/>
-        <v>-205.60578209328008</v>
+        <v>-469.76274197775984</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="15"/>
-        <v>-274.14104279104009</v>
+        <v>-563.71529037331186</v>
       </c>
       <c r="U15" s="31">
         <f t="shared" si="15"/>
-        <v>-342.6763034888001</v>
+        <v>-657.66783876886382</v>
       </c>
       <c r="V15" s="31">
         <f t="shared" si="15"/>
-        <v>-411.21156418656017</v>
+        <v>-751.62038716441577</v>
       </c>
       <c r="W15" s="31">
         <f t="shared" si="15"/>
-        <v>-479.74682488432018</v>
+        <v>-845.57293555996773</v>
       </c>
       <c r="X15" s="31">
         <f t="shared" si="15"/>
-        <v>-548.28208558208019</v>
+        <v>-939.52548395551969</v>
       </c>
       <c r="Y15" s="31">
         <f t="shared" si="15"/>
-        <v>-616.81734627984019</v>
+        <v>-1033.4780323510718</v>
       </c>
       <c r="Z15" s="31">
         <f t="shared" si="15"/>
-        <v>-685.3526069776002</v>
+        <v>-1127.4305807466237</v>
       </c>
       <c r="AA15" s="31">
         <f t="shared" si="15"/>
-        <v>-753.88786767536021</v>
+        <v>-1221.3831291421757</v>
       </c>
       <c r="AB15" s="31">
         <f t="shared" si="15"/>
-        <v>-822.42312837312033</v>
+        <v>-1315.3356775377276</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -3944,22 +3818,22 @@
       </c>
       <c r="B16" s="10">
         <f t="shared" si="12"/>
-        <v>0.42358010320000011</v>
+        <v>0.17943573031999996</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="13"/>
-        <v>762.44418576000021</v>
+        <v>215.32287638399995</v>
       </c>
       <c r="D16" s="9">
         <f>IF(A16=0,0,$D$5+$D$6+($D$7*($D$10-6)))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G16" s="34">
         <v>6</v>
       </c>
       <c r="H16" s="30">
         <f t="shared" si="8"/>
-        <v>1.1089005180897573</v>
+        <v>1.2298388584977753</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3968,63 +3842,63 @@
       <c r="M16" s="3"/>
       <c r="N16" s="31">
         <f>H16*H6*100</f>
-        <v>332.67015542692724</v>
+        <v>245.96777169955507</v>
       </c>
       <c r="O16" s="31">
         <f>H16*100*(H6-H5)</f>
-        <v>221.78010361795145</v>
+        <v>0</v>
       </c>
       <c r="P16" s="31">
         <f t="shared" ref="P16:X16" si="16">$H$16*100*($H$6-$H$5*J10)</f>
-        <v>110.89005180897573</v>
+        <v>-245.96777169955507</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-491.93554339911014</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="16"/>
-        <v>-110.89005180897573</v>
+        <v>-737.90331509866519</v>
       </c>
       <c r="S16" s="31">
         <f t="shared" si="16"/>
-        <v>-221.78010361795145</v>
+        <v>-983.87108679822029</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="16"/>
-        <v>-332.67015542692718</v>
+        <v>-1229.8388584977754</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="16"/>
-        <v>-443.56020723590291</v>
+        <v>-1475.8066301973304</v>
       </c>
       <c r="V16" s="31">
         <f t="shared" si="16"/>
-        <v>-554.45025904487863</v>
+        <v>-1721.7744018968856</v>
       </c>
       <c r="W16" s="31">
         <f t="shared" si="16"/>
-        <v>-665.34031085385436</v>
+        <v>-1967.7421735964406</v>
       </c>
       <c r="X16" s="31">
         <f t="shared" si="16"/>
-        <v>-776.23036266283009</v>
+        <v>-2213.7099452959956</v>
       </c>
       <c r="Y16" s="31">
         <f t="shared" ref="Y16" si="17">$H$16*100*($H$6-$H$5*S10)</f>
-        <v>-887.12041447180582</v>
+        <v>-2459.6777169955508</v>
       </c>
       <c r="Z16" s="31">
         <f t="shared" ref="Z16" si="18">$H$16*100*($H$6-$H$5*T10)</f>
-        <v>-998.01046628078154</v>
+        <v>-2705.645488695106</v>
       </c>
       <c r="AA16" s="31">
         <f t="shared" ref="AA16" si="19">$H$16*100*($H$6-$H$5*U10)</f>
-        <v>-1108.9005180897573</v>
+        <v>-2951.6132603946608</v>
       </c>
       <c r="AB16" s="31">
         <f t="shared" ref="AB16" si="20">$H$16*100*($H$6-$H$5*V10)</f>
-        <v>-1219.7905698987329</v>
+        <v>-3197.581032094216</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4034,22 +3908,22 @@
       </c>
       <c r="B17" s="10">
         <f t="shared" si="12"/>
-        <v>0.68535260697760025</v>
+        <v>0.46976274197775986</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="13"/>
-        <v>1028.0289104664002</v>
+        <v>469.76274197775984</v>
       </c>
       <c r="D17" s="9">
         <f>IF(A17=0,0,$D$6+($D$7*($D$10-6)))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="34">
         <v>7</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="8"/>
-        <v>1.7942010382692275</v>
+        <v>3.2197181315471757</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4059,59 +3933,59 @@
       <c r="N17" s="3"/>
       <c r="O17" s="31">
         <f>H6*H17*100</f>
-        <v>538.26031148076834</v>
+        <v>643.9436263094351</v>
       </c>
       <c r="P17" s="31">
         <f>H17*100*(H6-H5)</f>
-        <v>358.84020765384548</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" ref="Q17:X17" si="21">$H$17*100*($H$6-$H$5*J10)</f>
-        <v>179.42010382692274</v>
+        <v>-643.9436263094351</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1287.8872526188702</v>
       </c>
       <c r="S17" s="31">
         <f t="shared" si="21"/>
-        <v>-179.42010382692274</v>
+        <v>-1931.8308789283053</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="21"/>
-        <v>-358.84020765384548</v>
+        <v>-2575.7745052377404</v>
       </c>
       <c r="U17" s="31">
         <f t="shared" si="21"/>
-        <v>-538.26031148076822</v>
+        <v>-3219.7181315471753</v>
       </c>
       <c r="V17" s="31">
         <f t="shared" si="21"/>
-        <v>-717.68041530769096</v>
+        <v>-3863.6617578566106</v>
       </c>
       <c r="W17" s="31">
         <f t="shared" si="21"/>
-        <v>-897.10051913461371</v>
+        <v>-4507.605384166046</v>
       </c>
       <c r="X17" s="31">
         <f t="shared" si="21"/>
-        <v>-1076.5206229615364</v>
+        <v>-5151.5490104754808</v>
       </c>
       <c r="Y17" s="31">
         <f t="shared" ref="Y17" si="22">$H$17*100*($H$6-$H$5*R10)</f>
-        <v>-1255.9407267884592</v>
+        <v>-5795.4926367849157</v>
       </c>
       <c r="Z17" s="31">
         <f t="shared" ref="Z17" si="23">$H$17*100*($H$6-$H$5*S10)</f>
-        <v>-1435.3608306153819</v>
+        <v>-6439.4362630943506</v>
       </c>
       <c r="AA17" s="31">
         <f t="shared" ref="AA17" si="24">$H$17*100*($H$6-$H$5*T10)</f>
-        <v>-1614.7809344423047</v>
+        <v>-7083.3798894037864</v>
       </c>
       <c r="AB17" s="31">
         <f t="shared" ref="AB17" si="25">$H$17*100*($H$6-$H$5*U10)</f>
-        <v>-1794.2010382692274</v>
+        <v>-7727.3235157132212</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4121,22 +3995,22 @@
       </c>
       <c r="B18" s="10">
         <f t="shared" si="12"/>
-        <v>1.1089005180897573</v>
+        <v>1.2298388584977753</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="13"/>
-        <v>1330.680621707709</v>
+        <v>983.87108679822029</v>
       </c>
       <c r="D18" s="9">
         <f>IF(A18=0,0,($D$7*($D$10-6)))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G18" s="34">
         <v>8</v>
       </c>
       <c r="H18" s="30">
         <f t="shared" si="8"/>
-        <v>2.9030172799196103</v>
+        <v>8.429222068390505</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -4147,55 +4021,55 @@
       <c r="O18" s="3"/>
       <c r="P18" s="31">
         <f>H6*H18*100</f>
-        <v>870.90518397588323</v>
+        <v>1685.8444136781011</v>
       </c>
       <c r="Q18" s="31">
         <f>H18*100*(H6-H5)</f>
-        <v>580.60345598392212</v>
+        <v>0</v>
       </c>
       <c r="R18" s="31">
         <f t="shared" ref="R18:X18" si="26">$H$18*100*($H$6-$H$5*J10)</f>
-        <v>290.30172799196106</v>
+        <v>-1685.8444136781011</v>
       </c>
       <c r="S18" s="31">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-3371.6888273562022</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="26"/>
-        <v>-290.30172799196106</v>
+        <v>-5057.5332410343035</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="26"/>
-        <v>-580.60345598392212</v>
+        <v>-6743.3776547124044</v>
       </c>
       <c r="V18" s="31">
         <f t="shared" si="26"/>
-        <v>-870.90518397588312</v>
+        <v>-8429.2220683905052</v>
       </c>
       <c r="W18" s="31">
         <f t="shared" si="26"/>
-        <v>-1161.2069119678442</v>
+        <v>-10115.066482068607</v>
       </c>
       <c r="X18" s="31">
         <f t="shared" si="26"/>
-        <v>-1451.5086399598054</v>
+        <v>-11800.910895746707</v>
       </c>
       <c r="Y18" s="31">
         <f t="shared" ref="Y18" si="27">$H$18*100*($H$6-$H$5*Q10)</f>
-        <v>-1741.8103679517662</v>
+        <v>-13486.755309424809</v>
       </c>
       <c r="Z18" s="31">
         <f t="shared" ref="Z18" si="28">$H$18*100*($H$6-$H$5*R10)</f>
-        <v>-2032.1120959437274</v>
+        <v>-15172.599723102911</v>
       </c>
       <c r="AA18" s="31">
         <f t="shared" ref="AA18" si="29">$H$18*100*($H$6-$H$5*S10)</f>
-        <v>-2322.4138239356885</v>
+        <v>-16858.44413678101</v>
       </c>
       <c r="AB18" s="31">
         <f t="shared" ref="AB18" si="30">$H$18*100*($H$6-$H$5*T10)</f>
-        <v>-2612.7155519276494</v>
+        <v>-18544.28855045911</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4205,22 +4079,22 @@
       </c>
       <c r="B19" s="10">
         <f t="shared" si="12"/>
-        <v>1.7942010382692275</v>
+        <v>3.2197181315471757</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="13"/>
-        <v>1614.7809344423049</v>
+        <v>1931.8308789283055</v>
       </c>
       <c r="D19" s="9">
         <f>IF(A19=0,0,($D$7*($D$10-7)))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="34">
         <v>9</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="8"/>
-        <v>4.69708195890993</v>
+        <v>22.067703375046342</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4232,51 +4106,51 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="31">
         <f>H6*H19*100</f>
-        <v>1409.124587672979</v>
+        <v>4413.5406750092689</v>
       </c>
       <c r="R19" s="31">
         <f>H19*100*(H6-H5)</f>
-        <v>939.41639178198602</v>
+        <v>0</v>
       </c>
       <c r="S19" s="31">
         <f t="shared" ref="S19:X19" si="31">$H$19*100*($H$6-$H$5*J10)</f>
-        <v>469.70819589099301</v>
+        <v>-4413.5406750092689</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-8827.0813500185377</v>
       </c>
       <c r="U19" s="31">
         <f t="shared" si="31"/>
-        <v>-469.70819589099301</v>
+        <v>-13240.622025027806</v>
       </c>
       <c r="V19" s="31">
         <f t="shared" si="31"/>
-        <v>-939.41639178198602</v>
+        <v>-17654.162700037075</v>
       </c>
       <c r="W19" s="31">
         <f t="shared" si="31"/>
-        <v>-1409.124587672979</v>
+        <v>-22067.703375046345</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="31"/>
-        <v>-1878.832783563972</v>
+        <v>-26481.244050055611</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" ref="Y19" si="32">$H$19*100*($H$6-$H$5*P10)</f>
-        <v>-2348.5409794549651</v>
+        <v>-30894.784725064881</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" ref="Z19" si="33">$H$19*100*($H$6-$H$5*Q10)</f>
-        <v>-2818.2491753459581</v>
+        <v>-35308.325400074151</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" ref="AA19" si="34">$H$19*100*($H$6-$H$5*R10)</f>
-        <v>-3287.9573712369511</v>
+        <v>-39721.866075083417</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" ref="AB19" si="35">$H$19*100*($H$6-$H$5*S10)</f>
-        <v>-3757.6655671279441</v>
+        <v>-44135.40675009269</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4286,22 +4160,22 @@
       </c>
       <c r="B20" s="10">
         <f t="shared" si="12"/>
-        <v>2.9030172799196103</v>
+        <v>8.429222068390505</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="13"/>
-        <v>1741.8103679517665</v>
+        <v>3371.6888273562022</v>
       </c>
       <c r="D20" s="9">
         <f>IF(A20=0,0,($D$7*($D$10-8)))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="34">
         <v>10</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="8"/>
-        <v>7.5998786095162671</v>
+        <v>57.773247435871319</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4314,47 +4188,47 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="31">
         <f>H6*H20*100</f>
-        <v>2279.9635828548803</v>
+        <v>11554.649487174263</v>
       </c>
       <c r="S20" s="31">
         <f>H20*100*(H6-H5)</f>
-        <v>1519.9757219032535</v>
+        <v>0</v>
       </c>
       <c r="T20" s="31">
         <f>$H$20*100*($H$6-$H$5*J10)</f>
-        <v>759.98786095162677</v>
+        <v>-11554.649487174263</v>
       </c>
       <c r="U20" s="31">
         <f>$H$20*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-23109.298974348527</v>
       </c>
       <c r="V20" s="31">
         <f>$H$20*100*($H$6-$H$5*L10)</f>
-        <v>-759.98786095162677</v>
+        <v>-34663.948461522792</v>
       </c>
       <c r="W20" s="31">
         <f>$H$20*100*($H$6-$H$5*M10)</f>
-        <v>-1519.9757219032535</v>
+        <v>-46218.597948697054</v>
       </c>
       <c r="X20" s="31">
         <f>$H$20*100*($H$6-$H$5*N10)</f>
-        <v>-2279.9635828548803</v>
+        <v>-57773.247435871315</v>
       </c>
       <c r="Y20" s="31">
         <f t="shared" ref="Y20:AB20" si="36">$H$20*100*($H$6-$H$5*O10)</f>
-        <v>-3039.9514438065071</v>
+        <v>-69327.896923045584</v>
       </c>
       <c r="Z20" s="31">
         <f t="shared" si="36"/>
-        <v>-3799.9393047581339</v>
+        <v>-80882.546410219846</v>
       </c>
       <c r="AA20" s="31">
         <f t="shared" si="36"/>
-        <v>-4559.9271657097606</v>
+        <v>-92437.195897394107</v>
       </c>
       <c r="AB20" s="31">
         <f t="shared" si="36"/>
-        <v>-5319.9150266613869</v>
+        <v>-103991.84538456837</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4364,22 +4238,22 @@
       </c>
       <c r="B21" s="10">
         <f t="shared" si="12"/>
-        <v>4.69708195890993</v>
+        <v>22.067703375046342</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="13"/>
-        <v>1409.124587672979</v>
+        <v>4413.5406750092689</v>
       </c>
       <c r="D21" s="9">
         <f>IF(A21=0,0,($D$7*($D$10-9)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="34">
         <v>11</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" si="8"/>
-        <v>12.296603590197321</v>
+        <v>151.2503617871111</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -4393,43 +4267,43 @@
       <c r="R21" s="3"/>
       <c r="S21" s="32">
         <f>H6*H21*100</f>
-        <v>3688.9810770591967</v>
+        <v>30250.072357422221</v>
       </c>
       <c r="T21" s="32">
         <f>H21*100*(H6-H5)</f>
-        <v>2459.3207180394643</v>
+        <v>0</v>
       </c>
       <c r="U21" s="32">
         <f>$H$21*100*($H$6-$H$5*J10)</f>
-        <v>1229.6603590197321</v>
+        <v>-30250.072357422221</v>
       </c>
       <c r="V21" s="32">
         <f>$H$21*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-60500.144714844442</v>
       </c>
       <c r="W21" s="32">
         <f>$H$21*100*($H$6-$H$5*L10)</f>
-        <v>-1229.6603590197321</v>
+        <v>-90750.217072266663</v>
       </c>
       <c r="X21" s="32">
         <f>$H$21*100*($H$6-$H$5*M10)</f>
-        <v>-2459.3207180394643</v>
+        <v>-121000.28942968888</v>
       </c>
       <c r="Y21" s="32">
         <f t="shared" ref="Y21:AB21" si="37">$H$21*100*($H$6-$H$5*N10)</f>
-        <v>-3688.9810770591967</v>
+        <v>-151250.36178711109</v>
       </c>
       <c r="Z21" s="32">
         <f t="shared" si="37"/>
-        <v>-4918.6414360789286</v>
+        <v>-181500.43414453333</v>
       </c>
       <c r="AA21" s="32">
         <f t="shared" si="37"/>
-        <v>-6148.3017950986605</v>
+        <v>-211750.50650195556</v>
       </c>
       <c r="AB21" s="32">
         <f t="shared" si="37"/>
-        <v>-7377.9621541183933</v>
+        <v>-242000.57885937777</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4439,7 +4313,7 @@
       </c>
       <c r="B22" s="10">
         <f t="shared" si="12"/>
-        <v>7.5998786095162671</v>
+        <v>57.773247435871319</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="13"/>
@@ -4454,7 +4328,7 @@
       </c>
       <c r="H22" s="30">
         <f t="shared" si="8"/>
-        <v>19.895904608939269</v>
+        <v>395.97344715865682</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -4469,39 +4343,39 @@
       <c r="S22" s="32"/>
       <c r="T22" s="32">
         <f>H6*H22*100</f>
-        <v>5968.7713826817808</v>
+        <v>79194.689431731371</v>
       </c>
       <c r="U22" s="32">
         <f>H22*100*(H6-H5)</f>
-        <v>3979.1809217878535</v>
+        <v>0</v>
       </c>
       <c r="V22" s="32">
         <f>$H$22*100*($H$6-$H$5*J10)</f>
-        <v>1989.5904608939268</v>
+        <v>-79194.689431731371</v>
       </c>
       <c r="W22" s="32">
         <f>$H$22*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-158389.37886346274</v>
       </c>
       <c r="X22" s="32">
         <f>$H$22*100*($H$6-$H$5*L10)</f>
-        <v>-1989.5904608939268</v>
+        <v>-237584.06829519413</v>
       </c>
       <c r="Y22" s="32">
         <f t="shared" ref="Y22:AB22" si="38">$H$22*100*($H$6-$H$5*M10)</f>
-        <v>-3979.1809217878535</v>
+        <v>-316778.75772692548</v>
       </c>
       <c r="Z22" s="32">
         <f t="shared" si="38"/>
-        <v>-5968.7713826817799</v>
+        <v>-395973.44715865684</v>
       </c>
       <c r="AA22" s="32">
         <f t="shared" si="38"/>
-        <v>-7958.3618435757071</v>
+        <v>-475168.13659038825</v>
       </c>
       <c r="AB22" s="32">
         <f t="shared" si="38"/>
-        <v>-9947.9523044696343</v>
+        <v>-554362.82602211961</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4526,7 +4400,7 @@
       </c>
       <c r="H23" s="30">
         <f t="shared" si="8"/>
-        <v>32.191573657263739</v>
+        <v>1036.6584846613634</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -4542,35 +4416,35 @@
       <c r="T23" s="32"/>
       <c r="U23" s="32">
         <f>H6*H23*100</f>
-        <v>9657.4720971791212</v>
+        <v>207331.69693227269</v>
       </c>
       <c r="V23" s="32">
         <f>H23*100*(H6-H5)</f>
-        <v>6438.3147314527478</v>
+        <v>0</v>
       </c>
       <c r="W23" s="32">
         <f>$H$23*100*($H$6-$H$5*J10)</f>
-        <v>3219.1573657263739</v>
+        <v>-207331.69693227269</v>
       </c>
       <c r="X23" s="32">
         <f>$H$23*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-414663.39386454539</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" ref="Y23:AB23" si="39">$H$23*100*($H$6-$H$5*L10)</f>
-        <v>-3219.1573657263739</v>
+        <v>-621995.09079681803</v>
       </c>
       <c r="Z23" s="32">
         <f t="shared" si="39"/>
-        <v>-6438.3147314527478</v>
+        <v>-829326.78772909078</v>
       </c>
       <c r="AA23" s="32">
         <f t="shared" si="39"/>
-        <v>-9657.4720971791212</v>
+        <v>-1036658.4846613635</v>
       </c>
       <c r="AB23" s="32">
         <f t="shared" si="39"/>
-        <v>-12876.629462905496</v>
+        <v>-1243990.1815936361</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4595,7 +4469,7 @@
       </c>
       <c r="H24" s="30">
         <f t="shared" si="8"/>
-        <v>52.085966177452732</v>
+        <v>2713.9719128434494</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4612,31 +4486,31 @@
       <c r="U24" s="32"/>
       <c r="V24" s="32">
         <f>H6*H24*100</f>
-        <v>15625.789853235818</v>
+        <v>542794.38256868988</v>
       </c>
       <c r="W24" s="32">
         <f>H24*100*(H6-H5)</f>
-        <v>10417.193235490546</v>
+        <v>0</v>
       </c>
       <c r="X24" s="32">
         <f>$H$24*100*($H$6-$H$5*J10)</f>
-        <v>5208.5966177452729</v>
+        <v>-542794.38256868988</v>
       </c>
       <c r="Y24" s="32">
         <f t="shared" ref="Y24:AB24" si="40">$H$24*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-1085588.7651373798</v>
       </c>
       <c r="Z24" s="32">
         <f t="shared" si="40"/>
-        <v>-5208.5966177452729</v>
+        <v>-1628383.1477060695</v>
       </c>
       <c r="AA24" s="32">
         <f t="shared" si="40"/>
-        <v>-10417.193235490546</v>
+        <v>-2171177.5302747595</v>
       </c>
       <c r="AB24" s="32">
         <f t="shared" si="40"/>
-        <v>-15625.789853235819</v>
+        <v>-2713971.9128434495</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4661,7 +4535,7 @@
       </c>
       <c r="H25" s="30">
         <f t="shared" si="8"/>
-        <v>84.275093275118522</v>
+        <v>7105.1784678241502</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -4679,27 +4553,27 @@
       <c r="V25" s="32"/>
       <c r="W25" s="32">
         <f>H6*H25*100</f>
-        <v>25282.527982535554</v>
+        <v>1421035.6935648301</v>
       </c>
       <c r="X25" s="32">
         <f>H25*100*(H6-H5)</f>
-        <v>16855.018655023705</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="32">
         <f>$H$25*100*($H$6-$H$5*J10)</f>
-        <v>8427.5093275118525</v>
+        <v>-1421035.6935648301</v>
       </c>
       <c r="Z25" s="32">
         <f>$H$25*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-2842071.3871296602</v>
       </c>
       <c r="AA25" s="32">
         <f>$H$25*100*($H$6-$H$5*L10)</f>
-        <v>-8427.5093275118525</v>
+        <v>-4263107.0806944901</v>
       </c>
       <c r="AB25" s="32">
         <f>$H$25*100*($H$6-$H$5*M10)</f>
-        <v>-16855.018655023705</v>
+        <v>-5684142.7742593205</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4724,7 +4598,7 @@
       </c>
       <c r="H26" s="30">
         <f t="shared" si="8"/>
-        <v>136.35710091914177</v>
+        <v>18601.357228763623</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -4743,23 +4617,23 @@
       <c r="W26" s="32"/>
       <c r="X26" s="32">
         <f>H26*H6*100</f>
-        <v>40907.130275742529</v>
+        <v>3720271.4457527245</v>
       </c>
       <c r="Y26" s="32">
         <f>$H$26*100*($H$6-$H$5)</f>
-        <v>27271.420183828355</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="32">
         <f>$H$26*100*($H$6-$H$5*J10)</f>
-        <v>13635.710091914178</v>
+        <v>-3720271.4457527245</v>
       </c>
       <c r="AA26" s="32">
         <f>$H$26*100*($H$6-$H$5*K10)</f>
-        <v>0</v>
+        <v>-7440542.8915054491</v>
       </c>
       <c r="AB26" s="32">
         <f>$H$26*100*($H$6-$H$5*L10)</f>
-        <v>-13635.710091914178</v>
+        <v>-11160814.337258173</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4784,23 +4658,23 @@
       </c>
       <c r="H27" s="30">
         <f t="shared" si="8"/>
-        <v>220.62578928717141</v>
+        <v>48698.353224903163</v>
       </c>
       <c r="Y27" s="32">
         <f>$H$27*$H$6*100</f>
-        <v>66187.736786151421</v>
+        <v>9739670.6449806318</v>
       </c>
       <c r="Z27" s="32">
         <f>$H$27*100*($H$6-$H$5*I$10)</f>
-        <v>44125.157857434286</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="32">
         <f t="shared" ref="AA27:AB27" si="41">$H$27*100*($H$6-$H$5*J$10)</f>
-        <v>22062.578928717143</v>
+        <v>-9739670.6449806318</v>
       </c>
       <c r="AB27" s="32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-19479341.289961264</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4825,19 +4699,19 @@
       </c>
       <c r="H28" s="30">
         <f t="shared" si="8"/>
-        <v>356.97252706664335</v>
+        <v>127492.28874279647</v>
       </c>
       <c r="Z28" s="32">
         <f>$H$28*$H$6*100</f>
-        <v>107091.758119993</v>
+        <v>25498457.748559296</v>
       </c>
       <c r="AA28" s="32">
         <f>$H$28*100*($H$6-$H$5*I$10)</f>
-        <v>71394.505413328676</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="32">
         <f>$H$28*100*($H$6-$H$5*J$10)</f>
-        <v>35697.252706664338</v>
+        <v>-25498457.748559296</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4862,15 +4736,15 @@
       </c>
       <c r="H29" s="30">
         <f t="shared" si="8"/>
-        <v>577.58154879382903</v>
+        <v>333774.81192864117</v>
       </c>
       <c r="AA29" s="32">
         <f>$H$29*$H$6*100</f>
-        <v>173274.46463814873</v>
+        <v>66754962.385728233</v>
       </c>
       <c r="AB29" s="32">
         <f>$H$29*100*($H$6-$H$5*I$10)</f>
-        <v>115516.30975876581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4895,11 +4769,11 @@
       </c>
       <c r="H30" s="30">
         <f t="shared" si="8"/>
-        <v>934.52694594841546</v>
+        <v>873822.45762918249</v>
       </c>
       <c r="AB30" s="32">
         <f>$H$30*$H$6*100</f>
-        <v>280358.08378452464</v>
+        <v>174764491.5258365</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -4924,7 +4798,7 @@
       </c>
       <c r="H31" s="42">
         <f>SUM(H11:H26)</f>
-        <v>356.83784674299574</v>
+        <v>30097.863550620004</v>
       </c>
       <c r="I31" s="37">
         <f>SUMIF(I11:I30, "&lt;0")</f>
@@ -4936,75 +4810,75 @@
       </c>
       <c r="K31" s="37">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="37">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>-9.2360000000000007</v>
       </c>
       <c r="M31" s="37">
         <f t="shared" si="42"/>
-        <v>-10</v>
+        <v>-30.179848</v>
       </c>
       <c r="N31" s="37">
         <f t="shared" si="42"/>
-        <v>-36.180000000000007</v>
+        <v>-87.010842063999988</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="42"/>
-        <v>-88.539240000000007</v>
+        <v>-237.79438452355191</v>
       </c>
       <c r="P31" s="37">
         <f t="shared" si="42"/>
-        <v>-183.25649032000001</v>
+        <v>-634.54569868265901</v>
       </c>
       <c r="Q31" s="37">
         <f t="shared" si="42"/>
-        <v>-346.50900133776003</v>
+        <v>-1675.2406391512011</v>
       </c>
       <c r="R31" s="37">
         <f t="shared" si="42"/>
-        <v>-620.65156416449588</v>
+        <v>-4401.7799932978442</v>
       </c>
       <c r="S31" s="37">
         <f t="shared" si="42"/>
-        <v>-1074.2142308181544</v>
+        <v>-11541.860022453755</v>
       </c>
       <c r="T31" s="37">
         <f t="shared" si="42"/>
-        <v>-1818.078625463774</v>
+        <v>-30236.589538783934</v>
       </c>
       <c r="U31" s="37">
         <f t="shared" si="42"/>
-        <v>-3031.6512160003867</v>
+        <v>-79181.391412536323</v>
       </c>
       <c r="V31" s="37">
         <f t="shared" si="42"/>
-        <v>-5005.2116674886256</v>
+        <v>-207320.88271802012</v>
       </c>
       <c r="W31" s="37">
         <f t="shared" si="42"/>
-        <v>-8208.4324779965973</v>
+        <v>-542792.07095577661</v>
       </c>
       <c r="X31" s="37">
         <f t="shared" si="42"/>
-        <v>-13401.243749398496</v>
+        <v>-1421057.6417622231</v>
       </c>
       <c r="Y31" s="37">
         <f t="shared" si="42"/>
-        <v>-21813.212386526768</v>
+        <v>-3720358.906133499</v>
       </c>
       <c r="Z31" s="37">
         <f t="shared" si="42"/>
-        <v>-35433.777641400316</v>
+        <v>-9739931.6162574999</v>
       </c>
       <c r="AA31" s="37">
         <f t="shared" si="42"/>
-        <v>-57481.852223785711</v>
+        <v>-25499174.971362133</v>
       </c>
       <c r="AB31" s="37">
         <f t="shared" si="42"/>
-        <v>-93165.636898085286</v>
+        <v>-66756876.075026065</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="16.8" x14ac:dyDescent="0.3">
@@ -5024,85 +4898,88 @@
         <f t="shared" ref="D32:D34" si="43">IF(A32=0,0,($D$7*($D$10-20)))</f>
         <v>0</v>
       </c>
+      <c r="H32" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="I32" s="60">
         <f t="shared" ref="I32:AB32" si="44">SUM(I11:I30)</f>
-        <v>30.000000000000004</v>
+        <v>2</v>
       </c>
       <c r="J32" s="60">
         <f t="shared" si="44"/>
-        <v>68.540000000000006</v>
+        <v>5.2359999999999998</v>
       </c>
       <c r="K32" s="60">
         <f t="shared" si="44"/>
-        <v>120.89772000000002</v>
+        <v>11.707847999999997</v>
       </c>
       <c r="L32" s="60">
         <f t="shared" si="44"/>
-        <v>195.61251096000007</v>
+        <v>26.651146063999992</v>
       </c>
       <c r="M32" s="60">
         <f t="shared" si="44"/>
-        <v>306.50104273328009</v>
+        <v>63.772700395551972</v>
       </c>
       <c r="N32" s="60">
         <f t="shared" si="44"/>
-        <v>475.91868714244731</v>
+        <v>158.95692963555507</v>
       </c>
       <c r="O32" s="60">
         <f t="shared" si="44"/>
-        <v>740.03643579647974</v>
+        <v>406.14924178588319</v>
       </c>
       <c r="P32" s="60">
         <f t="shared" si="44"/>
-        <v>1157.3789531187044</v>
+        <v>1051.298714995442</v>
       </c>
       <c r="Q32" s="60">
         <f t="shared" si="44"/>
-        <v>1822.6391461460639</v>
+        <v>2738.3000358580675</v>
       </c>
       <c r="R32" s="60">
         <f t="shared" si="44"/>
-        <v>2889.0301384643317</v>
+        <v>7152.8694938764193</v>
       </c>
       <c r="S32" s="60">
         <f t="shared" si="44"/>
-        <v>4604.4507640352886</v>
+        <v>18708.212334968466</v>
       </c>
       <c r="T32" s="60">
         <f t="shared" si="44"/>
-        <v>7370.0013362090976</v>
+        <v>48958.099892947437</v>
       </c>
       <c r="U32" s="60">
         <f t="shared" si="44"/>
-        <v>11834.66216198632</v>
+        <v>128150.30551973637</v>
       </c>
       <c r="V32" s="60">
         <f t="shared" si="44"/>
-        <v>19048.483378093868</v>
+        <v>335473.49985066976</v>
       </c>
       <c r="W32" s="60">
         <f t="shared" si="44"/>
-        <v>30710.446105755876</v>
+        <v>878243.62260905351</v>
       </c>
       <c r="X32" s="60">
         <f t="shared" si="44"/>
-        <v>49569.501799113015</v>
+        <v>2299213.8039905014</v>
       </c>
       <c r="Y32" s="60">
         <f t="shared" si="44"/>
-        <v>80073.453910964861</v>
+        <v>6019311.7388471328</v>
       </c>
       <c r="Z32" s="60">
         <f t="shared" si="44"/>
-        <v>129418.84842794115</v>
+        <v>15758526.132301796</v>
       </c>
       <c r="AA32" s="60">
         <f t="shared" si="44"/>
-        <v>209249.69675640884</v>
+        <v>41255787.414366096</v>
       </c>
       <c r="AB32" s="60">
         <f t="shared" si="44"/>
-        <v>338406.00935186952</v>
+        <v>108007615.45081043</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
@@ -5123,85 +5000,88 @@
         <v>0</v>
       </c>
       <c r="G33" s="1"/>
+      <c r="H33" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I33" s="39">
         <f>SUM($H11:$H11)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J33" s="39">
         <f>SUM($H11:$H12)</f>
-        <v>0.26180000000000003</v>
+        <v>3.6179999999999997E-2</v>
       </c>
       <c r="K33" s="39">
         <f>SUM($H11:$H13)</f>
-        <v>0.52359240000000007</v>
+        <v>0.10471923999999999</v>
       </c>
       <c r="L33" s="39">
         <f>SUM($H11:$H14)</f>
-        <v>0.94717250320000024</v>
+        <v>0.28415497031999992</v>
       </c>
       <c r="M33" s="39">
         <f>SUM($H11:$H15)</f>
-        <v>1.6325251101776006</v>
+        <v>0.75391771229775983</v>
       </c>
       <c r="N33" s="39">
         <f>SUM($H11:$H16)</f>
-        <v>2.7414256282673577</v>
+        <v>1.9837565707955351</v>
       </c>
       <c r="O33" s="39">
         <f>SUM($H11:$H17)</f>
-        <v>4.5356266665365848</v>
+        <v>5.203474702342711</v>
       </c>
       <c r="P33" s="39">
         <f>SUM($H11:$H18)</f>
-        <v>7.4386439464561951</v>
+        <v>13.632696770733215</v>
       </c>
       <c r="Q33" s="39">
         <f>SUM($H11:$H19)</f>
-        <v>12.135725905366126</v>
+        <v>35.700400145779554</v>
       </c>
       <c r="R33" s="39">
         <f>SUM($H11:$H20)</f>
-        <v>19.735604514882393</v>
+        <v>93.47364758165088</v>
       </c>
       <c r="S33" s="39">
         <f>SUM($H11:$H21)</f>
-        <v>32.032208105079718</v>
+        <v>244.72400936876198</v>
       </c>
       <c r="T33" s="39">
         <f>SUM($H11:$H22)</f>
-        <v>51.928112714018987</v>
+        <v>640.69745652741881</v>
       </c>
       <c r="U33" s="39">
         <f>SUM($H11:$H23)</f>
-        <v>84.119686371282725</v>
+        <v>1677.3559411887823</v>
       </c>
       <c r="V33" s="39">
         <f>SUM($H11:$H24)</f>
-        <v>136.20565254873546</v>
+        <v>4391.3278540322317</v>
       </c>
       <c r="W33" s="39">
         <f>SUM($H11:$H25)</f>
-        <v>220.48074582385397</v>
+        <v>11496.506321856381</v>
       </c>
       <c r="X33" s="39">
         <f>SUM($H11:$H26)</f>
-        <v>356.83784674299574</v>
+        <v>30097.863550620004</v>
       </c>
       <c r="Y33" s="39">
         <f>SUM($H11:$H27)</f>
-        <v>577.46363603016721</v>
+        <v>78796.216775523164</v>
       </c>
       <c r="Z33" s="39">
         <f>SUM($H11:$H28)</f>
-        <v>934.43616309681056</v>
+        <v>206288.50551831964</v>
       </c>
       <c r="AA33" s="39">
         <f>SUM($H11:$H29)</f>
-        <v>1512.0177118906395</v>
+        <v>540063.31744696083</v>
       </c>
       <c r="AB33" s="39">
         <f>SUM($H11:$H30)</f>
-        <v>2446.5446578390547</v>
+        <v>1413885.7750761434</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -5228,15 +5108,15 @@
       </c>
       <c r="B35" s="25">
         <f>SUM(B13:B34)</f>
-        <v>19.735604514882393</v>
+        <v>93.47364758165088</v>
       </c>
       <c r="C35" s="25">
         <f>SUM(C13:C34)</f>
-        <v>9094.9536480011593</v>
+        <v>11541.860022453757</v>
       </c>
       <c r="D35" s="26">
         <f>MAX(D13:D34)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6820,102 +6700,102 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="39" priority="73">
+    <cfRule type="expression" dxfId="19" priority="73">
       <formula>$I$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="37" priority="74">
+    <cfRule type="expression" dxfId="18" priority="74">
       <formula>$J$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="35" priority="75">
+    <cfRule type="expression" dxfId="17" priority="75">
       <formula>$K$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="33" priority="76">
+    <cfRule type="expression" dxfId="16" priority="76">
       <formula>$L$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="31" priority="77">
+    <cfRule type="expression" dxfId="15" priority="77">
       <formula>$M$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="29" priority="78">
+    <cfRule type="expression" dxfId="14" priority="78">
       <formula>$N$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="27" priority="79">
+    <cfRule type="expression" dxfId="13" priority="79">
       <formula>$O$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="25" priority="80">
+    <cfRule type="expression" dxfId="12" priority="80">
       <formula>$P$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="23" priority="81">
+    <cfRule type="expression" dxfId="11" priority="81">
       <formula>$Q$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="21" priority="82">
+    <cfRule type="expression" dxfId="10" priority="82">
       <formula>$R$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="19" priority="83">
+    <cfRule type="expression" dxfId="9" priority="83">
       <formula>$S$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="17" priority="84">
+    <cfRule type="expression" dxfId="8" priority="84">
       <formula>$T$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="15" priority="85">
+    <cfRule type="expression" dxfId="7" priority="85">
       <formula>$U$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="13" priority="86">
+    <cfRule type="expression" dxfId="6" priority="86">
       <formula>$V$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="11" priority="87">
+    <cfRule type="expression" dxfId="5" priority="87">
       <formula>$W$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="expression" dxfId="9" priority="88">
+    <cfRule type="expression" dxfId="4" priority="88">
       <formula>$X$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>$Y$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="expression" dxfId="5" priority="23">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>$Z$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="1" priority="22">
       <formula>$AA$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>$AB$10=$D$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6945,11 +6825,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="13" t="s">
         <v>52</v>
       </c>
@@ -6964,178 +6844,178 @@
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="69"/>
       <c r="F2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83">
+      <c r="G2" s="72"/>
+      <c r="H2" s="73">
         <v>5</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="73">
         <v>5</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="73">
         <v>5</v>
       </c>
-      <c r="K2" s="83">
+      <c r="K2" s="73">
         <v>5</v>
       </c>
-      <c r="L2" s="83">
+      <c r="L2" s="73">
         <v>5</v>
       </c>
-      <c r="M2" s="83">
+      <c r="M2" s="73">
         <v>5</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="74">
         <v>5</v>
       </c>
-      <c r="O2" s="96">
+      <c r="O2" s="86">
         <v>3</v>
       </c>
-      <c r="P2" s="97">
+      <c r="P2" s="87">
         <v>3</v>
       </c>
-      <c r="Q2" s="98">
+      <c r="Q2" s="88">
         <v>3</v>
       </c>
-      <c r="R2" s="102">
+      <c r="R2" s="92">
         <v>2</v>
       </c>
-      <c r="S2" s="103">
+      <c r="S2" s="93">
         <v>2</v>
       </c>
-      <c r="T2" s="103">
+      <c r="T2" s="93">
         <v>2</v>
       </c>
-      <c r="U2" s="104">
+      <c r="U2" s="94">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76">
         <f>H2</f>
         <v>5</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="76">
         <f>SUM($H$2:I2)</f>
         <v>10</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="76">
         <f>SUM($H$2:J2)</f>
         <v>15</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="76">
         <f>SUM($H$2:K2)</f>
         <v>20</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="76">
         <f>SUM($H$2:L2)</f>
         <v>25</v>
       </c>
-      <c r="M3" s="86">
+      <c r="M3" s="76">
         <f>SUM($H$2:M2)</f>
         <v>30</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="77">
         <f>SUM($H$2:N2)</f>
         <v>35</v>
       </c>
-      <c r="O3" s="99">
+      <c r="O3" s="89">
         <f>SUM($H$2:O2)</f>
         <v>38</v>
       </c>
-      <c r="P3" s="100">
+      <c r="P3" s="90">
         <f>SUM($H$2:P2)</f>
         <v>41</v>
       </c>
-      <c r="Q3" s="101">
+      <c r="Q3" s="91">
         <f>SUM($H$2:Q2)</f>
         <v>44</v>
       </c>
-      <c r="R3" s="105">
+      <c r="R3" s="95">
         <f>SUM($H$2:R2)</f>
         <v>46</v>
       </c>
-      <c r="S3" s="106">
+      <c r="S3" s="96">
         <f>SUM($H$2:S2)</f>
         <v>48</v>
       </c>
-      <c r="T3" s="106">
+      <c r="T3" s="96">
         <f>SUM($H$2:T2)</f>
         <v>50</v>
       </c>
-      <c r="U3" s="107">
+      <c r="U3" s="97">
         <f>SUM($H$2:U2)</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="15"/>
-      <c r="G4" s="110">
+      <c r="G4" s="100">
         <v>30</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="101">
         <v>30</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="101">
         <v>30</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="101">
         <v>30</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="101">
         <v>30</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="101">
         <v>30</v>
       </c>
-      <c r="M4" s="111">
+      <c r="M4" s="101">
         <v>30</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="102">
         <v>30</v>
       </c>
-      <c r="O4" s="113">
+      <c r="O4" s="103">
         <v>5</v>
       </c>
-      <c r="P4" s="114">
+      <c r="P4" s="104">
         <v>5</v>
       </c>
-      <c r="Q4" s="115">
+      <c r="Q4" s="105">
         <v>5</v>
       </c>
-      <c r="R4" s="116">
+      <c r="R4" s="106">
         <v>3</v>
       </c>
-      <c r="S4" s="117">
+      <c r="S4" s="107">
         <v>3</v>
       </c>
-      <c r="T4" s="117">
+      <c r="T4" s="107">
         <v>3</v>
       </c>
-      <c r="U4" s="118">
+      <c r="U4" s="108">
         <v>3</v>
       </c>
     </row>
@@ -7158,49 +7038,49 @@
       <c r="F5" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="H5" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="122" t="s">
+      <c r="O5" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="121" t="s">
+      <c r="Q5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="122" t="s">
+      <c r="R5" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="120" t="s">
+      <c r="S5" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="120" t="s">
+      <c r="T5" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="121" t="s">
+      <c r="U5" s="111" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7222,7 +7102,7 @@
       <c r="F6" s="68">
         <v>0.01</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="98">
         <f>F6*G4*100</f>
         <v>30</v>
       </c>
@@ -7250,7 +7130,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="99">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
@@ -7262,7 +7142,7 @@
         <f t="shared" si="0"/>
         <v>-36</v>
       </c>
-      <c r="Q6" s="109">
+      <c r="Q6" s="99">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
@@ -7278,7 +7158,7 @@
         <f t="shared" si="0"/>
         <v>-47</v>
       </c>
-      <c r="U6" s="109">
+      <c r="U6" s="99">
         <f t="shared" si="0"/>
         <v>-49</v>
       </c>
@@ -7746,7 +7626,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="89">
+      <c r="N13" s="79">
         <f>F13*N4*100</f>
         <v>30</v>
       </c>
@@ -7808,7 +7688,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="88">
+      <c r="O14" s="78">
         <f>F14*O4*100</f>
         <v>215</v>
       </c>
@@ -7923,7 +7803,7 @@
       <c r="N16" s="51"/>
       <c r="O16" s="50"/>
       <c r="P16" s="18"/>
-      <c r="Q16" s="89">
+      <c r="Q16" s="79">
         <f>F16*Q4*100</f>
         <v>550</v>
       </c>
@@ -7976,7 +7856,7 @@
       <c r="O17" s="50"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="51"/>
-      <c r="R17" s="88">
+      <c r="R17" s="78">
         <f>F17*R4*100</f>
         <v>528</v>
       </c>
@@ -8103,20 +7983,20 @@
       <c r="F20" s="71">
         <v>16.84</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
       <c r="U20" s="54">
         <f>F20*U4*100</f>
         <v>5052</v>
@@ -8129,63 +8009,63 @@
         <f>SUM(F6:F20)</f>
         <v>36.629999999999995</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="83">
         <f>SUMIF(G5:G20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="84">
         <f t="shared" ref="H21:U21" si="16">SUMIF(H5:H20, "&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K21" s="94">
+      <c r="K21" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L21" s="94">
+      <c r="L21" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="84">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N21" s="95">
+      <c r="N21" s="85">
         <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="O21" s="93">
+      <c r="O21" s="83">
         <f t="shared" si="16"/>
         <v>-126</v>
       </c>
-      <c r="P21" s="94">
+      <c r="P21" s="84">
         <f t="shared" si="16"/>
         <v>-148</v>
       </c>
-      <c r="Q21" s="95">
+      <c r="Q21" s="85">
         <f t="shared" si="16"/>
         <v>-215</v>
       </c>
-      <c r="R21" s="93">
+      <c r="R21" s="83">
         <f t="shared" si="16"/>
         <v>-557</v>
       </c>
-      <c r="S21" s="94">
+      <c r="S21" s="84">
         <f t="shared" si="16"/>
         <v>-907</v>
       </c>
-      <c r="T21" s="94">
+      <c r="T21" s="84">
         <f t="shared" si="16"/>
         <v>-1543</v>
       </c>
-      <c r="U21" s="95">
+      <c r="U21" s="85">
         <f t="shared" si="16"/>
         <v>-2938</v>
       </c>
@@ -8194,63 +8074,63 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F22" s="61"/>
-      <c r="G22" s="93">
+      <c r="G22" s="83">
         <f t="shared" ref="G22:U22" si="17">SUM(G6:G20)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="84">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="84">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="84">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="K22" s="94">
+      <c r="K22" s="84">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="L22" s="94">
+      <c r="L22" s="84">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="M22" s="94">
+      <c r="M22" s="84">
         <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="N22" s="95">
+      <c r="N22" s="85">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="O22" s="93">
+      <c r="O22" s="83">
         <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="P22" s="94">
+      <c r="P22" s="84">
         <f t="shared" si="17"/>
         <v>283</v>
       </c>
-      <c r="Q22" s="95">
+      <c r="Q22" s="85">
         <f t="shared" si="17"/>
         <v>473</v>
       </c>
-      <c r="R22" s="93">
+      <c r="R22" s="83">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="S22" s="94">
+      <c r="S22" s="84">
         <f t="shared" si="17"/>
         <v>1018.0000000000002</v>
       </c>
-      <c r="T22" s="94">
+      <c r="T22" s="84">
         <f t="shared" si="17"/>
         <v>2010.0000000000005</v>
       </c>
-      <c r="U22" s="95">
+      <c r="U22" s="85">
         <f t="shared" si="17"/>
         <v>3104</v>
       </c>
